--- a/Vale/Docs/DataPA/PA_Summary_2023.xlsx
+++ b/Vale/Docs/DataPA/PA_Summary_2023.xlsx
@@ -25,9 +25,6 @@
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
-    <externalReference r:id="rId18"/>
-    <externalReference r:id="rId19"/>
-    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName function="false" hidden="false" name="aclbseadj" vbProcedure="false">[6]Data!$FL$6:$FL$57</definedName>
@@ -228,13 +225,11 @@
     <definedName function="false" hidden="false" name="factors" vbProcedure="false">[16]PARAMETER!$B$5:$I$12</definedName>
     <definedName function="false" hidden="false" name="FCEPAR" vbProcedure="false">[2]efledger!#ref!</definedName>
     <definedName function="false" hidden="false" name="FEB" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Feedrate_Cht" vbProcedure="false">'[17]Feed rate_cht'!$B$68:$L$125</definedName>
     <definedName function="false" hidden="false" name="Feed_rate_Cht" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="FE_EFS1" vbProcedure="false">[11]Update_Data!$AE$2:$AH$45</definedName>
     <definedName function="false" hidden="false" name="FLUX" vbProcedure="false">[2]CVLEDGER!$A$1:$L$16</definedName>
     <definedName function="false" hidden="false" name="Flux_Blended" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="FOR_MACRO" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="free" vbProcedure="false">[18]assumptions!#ref!</definedName>
     <definedName function="false" hidden="false" name="GRAPH_ACT" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="GRA_BASE" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="GRA_BASE_MIN" vbProcedure="false">#REF!</definedName>
@@ -273,7 +268,6 @@
     <definedName function="false" hidden="false" name="MAY" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="Mech_Av" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="Metal_Balance" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="MP_Inv" vbProcedure="false">[19]MP_Inv!$A$2:$A$54</definedName>
     <definedName function="false" hidden="false" name="Mtce_Av" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="mth" vbProcedure="false">[6]Data!$C$6:$C$57</definedName>
     <definedName function="false" hidden="false" name="NOV" vbProcedure="false">#REF!</definedName>
@@ -291,7 +285,6 @@
     <definedName function="false" hidden="false" name="OB_rate5130FS" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="OCT" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="ONHAND" vbProcedure="false">[2]CVLEDGER!$A$194:$I$210</definedName>
-    <definedName function="false" hidden="false" name="Opt_Cht" vbProcedure="false">[17]availability!#ref!</definedName>
     <definedName function="false" hidden="false" name="PA" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="Page1" vbProcedure="false">[5]PRODUCTION!$A$1:$G$52</definedName>
     <definedName function="false" hidden="false" name="Page1MR" vbProcedure="false">[5]PRODUCTION!$A$1:$G$68</definedName>
@@ -402,13 +395,11 @@
     <definedName function="false" hidden="false" name="Scr._Sta_reject" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="SCRAP" vbProcedure="false">[2]CVLEDGER!$A$18:$L$64</definedName>
     <definedName function="false" hidden="false" name="SCRAPRK" vbProcedure="false">[2]rkledger!#ref!</definedName>
-    <definedName function="false" hidden="false" name="SCrap_inv" vbProcedure="false">[19]Scrap_Inv!$A$1:$F$49</definedName>
     <definedName function="false" hidden="false" name="SEP" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="SG_Slag" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="Shiftly_Cht" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="Shift_Data" vbProcedure="false">'[13]52 wks rolling data'!$B$60:$G$102</definedName>
     <definedName function="false" hidden="false" name="Shift_Data_EF" vbProcedure="false">'[13]52 wks rolling data'!#ref!</definedName>
-    <definedName function="false" hidden="false" name="shift_tgl" vbProcedure="false">[20]shift!$C$20:$C$1174</definedName>
     <definedName function="false" hidden="false" name="SHIP" vbProcedure="false">[2]CVLEDGER!$A$177:$I$192</definedName>
     <definedName function="false" hidden="false" name="SM_ADJ" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="Sp1A" vbProcedure="false">#REF!</definedName>
@@ -1486,7 +1477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="129">
   <si>
     <t xml:space="preserve">Unit</t>
   </si>
@@ -1755,7 +1746,19 @@
     <t xml:space="preserve">Remarks</t>
   </si>
   <si>
-    <t xml:space="preserve">Event Time</t>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGS Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity or Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Related Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note</t>
   </si>
   <si>
     <t xml:space="preserve">No outages (Normal operation).</t>
@@ -2229,79 +2232,79 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2321,7 +2324,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2333,23 +2336,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2357,7 +2360,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2365,15 +2368,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2454,14 +2457,14 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Production"/>
-      <sheetName val="Avg_Pow and Prd Record"/>
+      <sheetName val="Avg_Pow and Prd Chte"/>
+      <sheetName val="Prd_Cht"/>
       <sheetName val="Scrap_CS_MP"/>
-      <sheetName val="Prd_Cht"/>
+      <sheetName val="Dust Handling Cht"/>
+      <sheetName val="DKP_RKF_EFF"/>
       <sheetName val="Feed rate_cht"/>
       <sheetName val="Availability"/>
-      <sheetName val="DKP_RKF_EFF"/>
       <sheetName val=" EFS_EFM"/>
-      <sheetName val="Dust Handling Cht"/>
       <sheetName val="52wks Rolling data"/>
       <sheetName val="Plan vs Actual"/>
       <sheetName val="EF3 Loss"/>
@@ -2494,20 +2497,15 @@
       <sheetName val="EF SHift Data"/>
       <sheetName val="Phys_Availibility"/>
       <sheetName val="Avilability_Data"/>
-      <sheetName val="Data"/>
-      <sheetName val="Avg_Pow_and_Prd_Record"/>
-      <sheetName val="Feed_rate_cht"/>
-      <sheetName val="_EFS_EFM"/>
-      <sheetName val="Dust_Handling_Cht"/>
-      <sheetName val="52wks_Rolling_data"/>
-      <sheetName val="Plan_vs_Actual"/>
-      <sheetName val="EF3_Loss"/>
-      <sheetName val="DKP_SCR_Cht"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="input"/>
       <sheetName val="dBase__3P2"/>
       <sheetName val="_Prod_Cht"/>
       <sheetName val="Power_Utilization"/>
       <sheetName val="Wk_Report_Data"/>
+      <sheetName val="_EFS_EFM"/>
       <sheetName val="EDS_Cht"/>
+      <sheetName val="Dust_Handling_Cht"/>
       <sheetName val="WK_Data_Utilization"/>
       <sheetName val="52_wks_rolling_data"/>
       <sheetName val="2006_Prod_Loss"/>
@@ -2518,6 +2516,12 @@
       <sheetName val="Power_Availability"/>
       <sheetName val="Weekly_Cht_data"/>
       <sheetName val="EF_SHift_Data"/>
+      <sheetName val="Avg_Pow_and_Prd_Chte"/>
+      <sheetName val="Feed_rate_cht"/>
+      <sheetName val="52wks_Rolling_data"/>
+      <sheetName val="Plan_vs_Actual"/>
+      <sheetName val="EF3_Loss"/>
+      <sheetName val="DKP_SCR_Cht"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2585,375 +2589,13 @@
       <sheetData sheetId="62"/>
       <sheetData sheetId="63"/>
       <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Page1 of 4"/>
-      <sheetName val="Page2 of 4"/>
-      <sheetName val="Page 3 of 4"/>
-      <sheetName val="Page4 of 4"/>
-      <sheetName val="Data"/>
-      <sheetName val="Module2"/>
-      <sheetName val="Module3"/>
-      <sheetName val="Module1"/>
-      <sheetName val="Table PP"/>
-      <sheetName val="Table Safety"/>
-      <sheetName val="Petea_Q1"/>
-      <sheetName val="Page1_of_4"/>
-      <sheetName val="Page2_of_4"/>
-      <sheetName val="Page_3_of_4"/>
-      <sheetName val="Page4_of_4"/>
-      <sheetName val="Table_PP"/>
-      <sheetName val="Table_Safety"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sulphur Balance"/>
-      <sheetName val="MENU"/>
-      <sheetName val="Data Base PSBU"/>
-      <sheetName val="PRODUCTION"/>
-      <sheetName val="Management Cockpit"/>
-      <sheetName val="2009 OEE"/>
-      <sheetName val="Chart Data1"/>
-      <sheetName val="Prd chart"/>
-      <sheetName val="OPt &amp; PA Cht"/>
-      <sheetName val="Env Chart"/>
-      <sheetName val="%S in Prd "/>
-      <sheetName val="%S in Shipment"/>
-      <sheetName val="%S in Shipment VIJ"/>
-      <sheetName val="Product Off Spec"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="DK EBO"/>
-      <sheetName val="DK WBO"/>
-      <sheetName val="DK TOTAL"/>
-      <sheetName val="Dryer Performance"/>
-      <sheetName val="RKLEDGER"/>
-      <sheetName val="Kiln Performance"/>
-      <sheetName val="EFLEDGER"/>
-      <sheetName val="Fce Performance"/>
-      <sheetName val="CVLEDGER"/>
-      <sheetName val="Inventory"/>
-      <sheetName val="Shortfall Analysis"/>
-      <sheetName val="Recovery New DKp to Prd"/>
-      <sheetName val="Summary of 2006"/>
-      <sheetName val="Recovery New Dusting rate"/>
-      <sheetName val="Recovery EFF to Prd"/>
-      <sheetName val="New Budget 140 Mlbs"/>
-      <sheetName val="Fcast 144 Mlbs"/>
-      <sheetName val="Forecast 150.9 MLbs"/>
-      <sheetName val="Plan vs actual"/>
-      <sheetName val="Act vs F'cast"/>
-      <sheetName val="Forecast 140"/>
-      <sheetName val="2009 Monthly 147 Mlbs"/>
-      <sheetName val="Recovery Analysis"/>
-      <sheetName val="Module1"/>
-      <sheetName val="Forecast 144 MLbs"/>
-      <sheetName val="Forecast"/>
-      <sheetName val="Original Plan_140 MLbs"/>
-      <sheetName val="Recovery"/>
-      <sheetName val="Variance Analysis "/>
-      <sheetName val="New Budget"/>
-      <sheetName val="2009 New Budget"/>
-      <sheetName val="Plan_140 MLbs"/>
-      <sheetName val="Q2 2008 Fcast"/>
-      <sheetName val="Plan_176 MLbs"/>
-      <sheetName val="SPC CHt"/>
-      <sheetName val="Summary Parameter"/>
-      <sheetName val="DK Data"/>
-      <sheetName val="RK Data"/>
-      <sheetName val="EF Data"/>
-      <sheetName val="EF Cht"/>
-      <sheetName val="CV_Data"/>
-      <sheetName val="Chart Data"/>
-      <sheetName val="Env Chat"/>
-      <sheetName val="RK Cht"/>
-      <sheetName val="Bulk Cht"/>
-      <sheetName val="Parameter Cht"/>
-      <sheetName val="Recovery Cht"/>
-      <sheetName val="PARAMETER"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Process Cost Input"/>
-      <sheetName val="Mine Cost Input"/>
-      <sheetName val="Compartment"/>
-      <sheetName val="Blend Grade"/>
-      <sheetName val="Revenue"/>
-      <sheetName val="Ranking"/>
-      <sheetName val="Overall Rank"/>
-      <sheetName val="SS#5 Rank"/>
-      <sheetName val="SS#8 Rank"/>
-      <sheetName val="SS#9 Rank"/>
-      <sheetName val="SS#10 Rank"/>
-      <sheetName val="SS#11 Rank"/>
-      <sheetName val="SS#12 Rank"/>
-      <sheetName val="Feed rate_cht"/>
-      <sheetName val="Availability"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="rev"/>
-      <sheetName val="actual"/>
-      <sheetName val="actual-M"/>
-      <sheetName val="chart"/>
-      <sheetName val="Map"/>
-      <sheetName val="Grade Calculator (2)"/>
-      <sheetName val="CCP2-2Y"/>
-      <sheetName val="historical"/>
-      <sheetName val="Shutdown"/>
-      <sheetName val="Major Shutdown"/>
-      <sheetName val="Reforcast"/>
-      <sheetName val="cpanel"/>
-      <sheetName val="summary"/>
-      <sheetName val="monthly"/>
-      <sheetName val="weekly"/>
-      <sheetName val="bulk-chart"/>
-      <sheetName val="bulk"/>
-      <sheetName val="shipment"/>
-      <sheetName val="oee"/>
-      <sheetName val="2015"/>
-      <sheetName val="2016"/>
-      <sheetName val="Master Schedule"/>
-      <sheetName val="2017"/>
-      <sheetName val="OD OF Historical"/>
-      <sheetName val="EF OF Historical"/>
-      <sheetName val="RK OF Historical"/>
-      <sheetName val="CV OF Historical"/>
-      <sheetName val="Balance"/>
-      <sheetName val="2015Mine"/>
-      <sheetName val="2016Mine"/>
-      <sheetName val="2016Mine-Ori"/>
-      <sheetName val="2017Mine"/>
-      <sheetName val="2017Mine-Ori"/>
-      <sheetName val="Individual"/>
-      <sheetName val="Operating Data"/>
-      <sheetName val="Process Variables"/>
-      <sheetName val="Inv &amp; Comp"/>
-      <sheetName val="Equipment &amp; Dashboard"/>
-      <sheetName val="CCP2-6M"/>
-      <sheetName val="Grade Calculator"/>
-      <sheetName val="check mine"/>
-      <sheetName val="MP_Inv"/>
-      <sheetName val="Scrap_Inv"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Update_Data"/>
-      <sheetName val="%Op_time"/>
-      <sheetName val="Pow_Set"/>
-      <sheetName val="Avg_Pow"/>
-      <sheetName val="Calcine"/>
-      <sheetName val="EF1_Data"/>
-      <sheetName val="EF2_Data"/>
-      <sheetName val="EF3_Data"/>
-      <sheetName val="EF4_Data"/>
-      <sheetName val="EFT_Data"/>
-      <sheetName val="Plan"/>
-      <sheetName val="2003 MWH_Plan"/>
-      <sheetName val="PRODUCTION"/>
-      <sheetName val="2003_MWH_Plan"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3046,7 +2688,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3075,15 +2717,69 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="PM Schedule Revisi 3"/>
-      <sheetName val="Availability"/>
-      <sheetName val="Compliance"/>
-      <sheetName val="Revision History"/>
-      <sheetName val="lookup"/>
+      <sheetName val="PARAMETER"/>
+      <sheetName val="Summary_Gab"/>
+      <sheetName val="SUMMARY "/>
+      <sheetName val="Plan Monthly"/>
+      <sheetName val="Summary by Hill"/>
+      <sheetName val="West_Yearly"/>
+      <sheetName val="West 1st Half"/>
+      <sheetName val="West 2nd Half"/>
+      <sheetName val="DATA_XXX"/>
+      <sheetName val="Petea_Yearly"/>
+      <sheetName val="Petea_1st Half"/>
+      <sheetName val="Petea_2nd Half"/>
+      <sheetName val="Production Summary"/>
+      <sheetName val="Chart-OB"/>
+      <sheetName val="Chart-ROM"/>
+      <sheetName val="Chart-SSP"/>
+      <sheetName val="Chart-OB(W) Distribution"/>
+      <sheetName val="Chart-OB(E) Distribution"/>
+      <sheetName val="Chart-ROM (W) Distribution"/>
+      <sheetName val="Chart-ROM (E) Distribution"/>
+      <sheetName val="Monthly_Ni"/>
+      <sheetName val="Monthly_Fe"/>
+      <sheetName val="Monthly_SM"/>
+      <sheetName val="Monthly_Co"/>
+      <sheetName val="Monthly_SR"/>
+      <sheetName val="Monthly_Civil"/>
+      <sheetName val="Monthly_DKP Prod"/>
+      <sheetName val="Monthly_WOS Stat"/>
+      <sheetName val="Monthly_LBS Ni"/>
+      <sheetName val="OB_Distance"/>
+      <sheetName val="ROM_Distance"/>
+      <sheetName val="SSP_Distance"/>
+      <sheetName val="Quarry_Distance"/>
+      <sheetName val="SS#5_Prod"/>
+      <sheetName val="SS#8_Prod"/>
+      <sheetName val="SS#9_Prod"/>
+      <sheetName val="SS#11_Prod"/>
+      <sheetName val="SS#10_Pet"/>
+      <sheetName val="SS#All"/>
+      <sheetName val="Ni_Grade"/>
+      <sheetName val="Fe_Grade"/>
+      <sheetName val="SM_Ratio"/>
+      <sheetName val="Chart-OB by Hill"/>
+      <sheetName val="Chart-ROM by Hill"/>
+      <sheetName val="Chart-Civil by Hill"/>
+      <sheetName val="Chart-SSP by Hill"/>
+      <sheetName val="Chart-OREX by Hill"/>
+      <sheetName val="Chart-DKP by Hill"/>
+      <sheetName val="Chart-lbs by hill"/>
+      <sheetName val="Update_Data"/>
+      <sheetName val="%Op_time"/>
+      <sheetName val="EF1_Data"/>
+      <sheetName val="Pow_Set"/>
+      <sheetName val="EF2_Data"/>
+      <sheetName val="Avg_Pow"/>
+      <sheetName val="EF3_Data"/>
+      <sheetName val="Calcine"/>
+      <sheetName val="EF4_Data"/>
+      <sheetName val="EFT_Data"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3091,12 +2787,66 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3421,328 +3171,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="P Plant"/>
-      <sheetName val="SUMMARY "/>
-      <sheetName val="petea_(2007)"/>
-      <sheetName val="west_(2007)"/>
-      <sheetName val="west_Q1"/>
-      <sheetName val="west_Q2"/>
-      <sheetName val="west_Q3"/>
-      <sheetName val="west_Q4"/>
-      <sheetName val="Petea_Q1"/>
-      <sheetName val="Petea_Q2"/>
-      <sheetName val="Petea_Q3"/>
-      <sheetName val="Petea_Q4"/>
-      <sheetName val="strategy"/>
-      <sheetName val="Wk_Press data"/>
-      <sheetName val="Detailed Data Capture"/>
-      <sheetName val="P_Plant"/>
-      <sheetName val="SUMMARY_"/>
-      <sheetName val="Wk_Press_data"/>
-      <sheetName val="Detailed_Data_Capture"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PARAMETER"/>
-      <sheetName val="Summary_Gab"/>
-      <sheetName val="SUMMARY "/>
-      <sheetName val="Plan Monthly"/>
-      <sheetName val="Summary by Hill"/>
-      <sheetName val="West_Yearly"/>
-      <sheetName val="West 1st Half"/>
-      <sheetName val="West 2nd Half"/>
-      <sheetName val="DATA_XXX"/>
-      <sheetName val="Petea_Yearly"/>
-      <sheetName val="Petea_1st Half"/>
-      <sheetName val="Petea_2nd Half"/>
-      <sheetName val="Production Summary"/>
-      <sheetName val="Chart-OB"/>
-      <sheetName val="Chart-ROM"/>
-      <sheetName val="Chart-SSP"/>
-      <sheetName val="Chart-OB(W) Distribution"/>
-      <sheetName val="Chart-OB(E) Distribution"/>
-      <sheetName val="Chart-ROM (W) Distribution"/>
-      <sheetName val="Chart-ROM (E) Distribution"/>
-      <sheetName val="Monthly_Ni"/>
-      <sheetName val="Monthly_Fe"/>
-      <sheetName val="Monthly_SM"/>
-      <sheetName val="Monthly_Co"/>
-      <sheetName val="Monthly_SR"/>
-      <sheetName val="Monthly_Civil"/>
-      <sheetName val="Monthly_DKP Prod"/>
-      <sheetName val="Monthly_WOS Stat"/>
-      <sheetName val="Monthly_LBS Ni"/>
-      <sheetName val="OB_Distance"/>
-      <sheetName val="ROM_Distance"/>
-      <sheetName val="SSP_Distance"/>
-      <sheetName val="Quarry_Distance"/>
-      <sheetName val="SS#5_Prod"/>
-      <sheetName val="SS#8_Prod"/>
-      <sheetName val="SS#9_Prod"/>
-      <sheetName val="SS#11_Prod"/>
-      <sheetName val="SS#10_Pet"/>
-      <sheetName val="SS#All"/>
-      <sheetName val="Ni_Grade"/>
-      <sheetName val="Fe_Grade"/>
-      <sheetName val="SM_Ratio"/>
-      <sheetName val="Chart-OB by Hill"/>
-      <sheetName val="Chart-ROM by Hill"/>
-      <sheetName val="Chart-Civil by Hill"/>
-      <sheetName val="Chart-SSP by Hill"/>
-      <sheetName val="Chart-OREX by Hill"/>
-      <sheetName val="Chart-DKP by Hill"/>
-      <sheetName val="Chart-lbs by hill"/>
-      <sheetName val="Update_Data"/>
-      <sheetName val="%Op_time"/>
-      <sheetName val="EF1_Data"/>
-      <sheetName val="Pow_Set"/>
-      <sheetName val="EF2_Data"/>
-      <sheetName val="Avg_Pow"/>
-      <sheetName val="EF3_Data"/>
-      <sheetName val="Calcine"/>
-      <sheetName val="EF4_Data"/>
-      <sheetName val="EFT_Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Production"/>
-      <sheetName val="Avg_Pow and Prd Chte"/>
-      <sheetName val="Prd_Cht"/>
-      <sheetName val="Scrap_CS_MP"/>
-      <sheetName val="Dust Handling Cht"/>
-      <sheetName val="DKP_RKF_EFF"/>
-      <sheetName val="Feed rate_cht"/>
-      <sheetName val="Availability"/>
-      <sheetName val=" EFS_EFM"/>
-      <sheetName val="52wks Rolling data"/>
-      <sheetName val="Plan vs Actual"/>
-      <sheetName val="EF3 Loss"/>
-      <sheetName val="DK_Delay"/>
-      <sheetName val="RK_Delay"/>
-      <sheetName val="CT_Delay"/>
-      <sheetName val="EF_Delay"/>
-      <sheetName val="Power&gt;80%"/>
-      <sheetName val="DKP SCR_Cht"/>
-      <sheetName val="WP_Menu"/>
-      <sheetName val="WK_Balance"/>
-      <sheetName val="dBase _3P2"/>
-      <sheetName val="Index_Data"/>
-      <sheetName val=" Prod Cht"/>
-      <sheetName val="Recovery"/>
-      <sheetName val="Power Utilization"/>
-      <sheetName val="Wk_Report Data"/>
-      <sheetName val="EDS Cht"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="WK Data Utilization"/>
-      <sheetName val="52 wks rolling data"/>
-      <sheetName val="2006 Prod Loss"/>
-      <sheetName val="DK EDS"/>
-      <sheetName val="RK EDS"/>
-      <sheetName val="CT_EDS"/>
-      <sheetName val="EF EDS"/>
-      <sheetName val="2004 Prd Loss"/>
-      <sheetName val="Power Availability"/>
-      <sheetName val="Weekly Cht_data"/>
-      <sheetName val="EF SHift Data"/>
-      <sheetName val="Phys_Availibility"/>
-      <sheetName val="Avilability_Data"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="input"/>
-      <sheetName val="dBase__3P2"/>
-      <sheetName val="_Prod_Cht"/>
-      <sheetName val="Power_Utilization"/>
-      <sheetName val="Wk_Report_Data"/>
-      <sheetName val="_EFS_EFM"/>
-      <sheetName val="EDS_Cht"/>
-      <sheetName val="Dust_Handling_Cht"/>
-      <sheetName val="WK_Data_Utilization"/>
-      <sheetName val="52_wks_rolling_data"/>
-      <sheetName val="2006_Prod_Loss"/>
-      <sheetName val="DK_EDS"/>
-      <sheetName val="RK_EDS"/>
-      <sheetName val="EF_EDS"/>
-      <sheetName val="2004_Prd_Loss"/>
-      <sheetName val="Power_Availability"/>
-      <sheetName val="Weekly_Cht_data"/>
-      <sheetName val="EF_SHift_Data"/>
-      <sheetName val="Avg_Pow_and_Prd_Chte"/>
-      <sheetName val="Feed_rate_cht"/>
-      <sheetName val="52wks_Rolling_data"/>
-      <sheetName val="Plan_vs_Actual"/>
-      <sheetName val="EF3_Loss"/>
-      <sheetName val="DKP_SCR_Cht"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3779,7 +3208,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3908,19 +3337,28 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Menu"/>
+      <sheetName val="Page1 of 4"/>
+      <sheetName val="Page2 of 4"/>
+      <sheetName val="Page 3 of 4"/>
+      <sheetName val="Page4 of 4"/>
       <sheetName val="Data"/>
-      <sheetName val="CS Asay_Cht"/>
-      <sheetName val="CS_Inv_cht"/>
-      <sheetName val="Scrap_Inv"/>
-      <sheetName val="MP_Inv"/>
-      <sheetName val="CHT_Data"/>
-      <sheetName val="EBO"/>
-      <sheetName val="CS_Asay_Cht"/>
+      <sheetName val="Module2"/>
+      <sheetName val="Module3"/>
+      <sheetName val="Module1"/>
+      <sheetName val="Table PP"/>
+      <sheetName val="Table Safety"/>
+      <sheetName val="Petea_Q1"/>
+      <sheetName val="Page1_of_4"/>
+      <sheetName val="Page2_of_4"/>
+      <sheetName val="Page_3_of_4"/>
+      <sheetName val="Page4_of_4"/>
+      <sheetName val="Table_PP"/>
+      <sheetName val="Table_Safety"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3932,6 +3370,352 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sulphur Balance"/>
+      <sheetName val="MENU"/>
+      <sheetName val="Data Base PSBU"/>
+      <sheetName val="PRODUCTION"/>
+      <sheetName val="Management Cockpit"/>
+      <sheetName val="2009 OEE"/>
+      <sheetName val="Chart Data1"/>
+      <sheetName val="Prd chart"/>
+      <sheetName val="OPt &amp; PA Cht"/>
+      <sheetName val="Env Chart"/>
+      <sheetName val="%S in Prd "/>
+      <sheetName val="%S in Shipment"/>
+      <sheetName val="%S in Shipment VIJ"/>
+      <sheetName val="Product Off Spec"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DK EBO"/>
+      <sheetName val="DK WBO"/>
+      <sheetName val="DK TOTAL"/>
+      <sheetName val="Dryer Performance"/>
+      <sheetName val="RKLEDGER"/>
+      <sheetName val="Kiln Performance"/>
+      <sheetName val="EFLEDGER"/>
+      <sheetName val="Fce Performance"/>
+      <sheetName val="CVLEDGER"/>
+      <sheetName val="Inventory"/>
+      <sheetName val="Shortfall Analysis"/>
+      <sheetName val="Recovery New DKp to Prd"/>
+      <sheetName val="Summary of 2006"/>
+      <sheetName val="Recovery New Dusting rate"/>
+      <sheetName val="Recovery EFF to Prd"/>
+      <sheetName val="New Budget 140 Mlbs"/>
+      <sheetName val="Fcast 144 Mlbs"/>
+      <sheetName val="Forecast 150.9 MLbs"/>
+      <sheetName val="Plan vs actual"/>
+      <sheetName val="Act vs F'cast"/>
+      <sheetName val="Forecast 140"/>
+      <sheetName val="2009 Monthly 147 Mlbs"/>
+      <sheetName val="Recovery Analysis"/>
+      <sheetName val="Module1"/>
+      <sheetName val="Forecast 144 MLbs"/>
+      <sheetName val="Forecast"/>
+      <sheetName val="Original Plan_140 MLbs"/>
+      <sheetName val="Recovery"/>
+      <sheetName val="Variance Analysis "/>
+      <sheetName val="New Budget"/>
+      <sheetName val="2009 New Budget"/>
+      <sheetName val="Plan_140 MLbs"/>
+      <sheetName val="Q2 2008 Fcast"/>
+      <sheetName val="Plan_176 MLbs"/>
+      <sheetName val="SPC CHt"/>
+      <sheetName val="Summary Parameter"/>
+      <sheetName val="DK Data"/>
+      <sheetName val="RK Data"/>
+      <sheetName val="EF Data"/>
+      <sheetName val="EF Cht"/>
+      <sheetName val="CV_Data"/>
+      <sheetName val="Chart Data"/>
+      <sheetName val="Env Chat"/>
+      <sheetName val="RK Cht"/>
+      <sheetName val="Bulk Cht"/>
+      <sheetName val="Parameter Cht"/>
+      <sheetName val="Recovery Cht"/>
+      <sheetName val="PARAMETER"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Process Cost Input"/>
+      <sheetName val="Mine Cost Input"/>
+      <sheetName val="Compartment"/>
+      <sheetName val="Blend Grade"/>
+      <sheetName val="Revenue"/>
+      <sheetName val="Ranking"/>
+      <sheetName val="Overall Rank"/>
+      <sheetName val="SS#5 Rank"/>
+      <sheetName val="SS#8 Rank"/>
+      <sheetName val="SS#9 Rank"/>
+      <sheetName val="SS#10 Rank"/>
+      <sheetName val="SS#11 Rank"/>
+      <sheetName val="SS#12 Rank"/>
+      <sheetName val="Feed rate_cht"/>
+      <sheetName val="Availability"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PM Schedule Revisi 3"/>
+      <sheetName val="Availability"/>
+      <sheetName val="Compliance"/>
+      <sheetName val="Revision History"/>
+      <sheetName val="lookup"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="rev"/>
+      <sheetName val="actual"/>
+      <sheetName val="actual-M"/>
+      <sheetName val="chart"/>
+      <sheetName val="Map"/>
+      <sheetName val="Grade Calculator (2)"/>
+      <sheetName val="CCP2-2Y"/>
+      <sheetName val="historical"/>
+      <sheetName val="Shutdown"/>
+      <sheetName val="Major Shutdown"/>
+      <sheetName val="Reforcast"/>
+      <sheetName val="cpanel"/>
+      <sheetName val="summary"/>
+      <sheetName val="monthly"/>
+      <sheetName val="weekly"/>
+      <sheetName val="bulk-chart"/>
+      <sheetName val="bulk"/>
+      <sheetName val="shipment"/>
+      <sheetName val="oee"/>
+      <sheetName val="2015"/>
+      <sheetName val="2016"/>
+      <sheetName val="Master Schedule"/>
+      <sheetName val="2017"/>
+      <sheetName val="OD OF Historical"/>
+      <sheetName val="EF OF Historical"/>
+      <sheetName val="RK OF Historical"/>
+      <sheetName val="CV OF Historical"/>
+      <sheetName val="Balance"/>
+      <sheetName val="2015Mine"/>
+      <sheetName val="2016Mine"/>
+      <sheetName val="2016Mine-Ori"/>
+      <sheetName val="2017Mine"/>
+      <sheetName val="2017Mine-Ori"/>
+      <sheetName val="Individual"/>
+      <sheetName val="Operating Data"/>
+      <sheetName val="Process Variables"/>
+      <sheetName val="Inv &amp; Comp"/>
+      <sheetName val="Equipment &amp; Dashboard"/>
+      <sheetName val="CCP2-6M"/>
+      <sheetName val="Grade Calculator"/>
+      <sheetName val="check mine"/>
+      <sheetName val="MP_Inv"/>
+      <sheetName val="Scrap_Inv"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Menu"/>
+      <sheetName val="Update_Data"/>
+      <sheetName val="%Op_time"/>
+      <sheetName val="Pow_Set"/>
+      <sheetName val="Avg_Pow"/>
+      <sheetName val="Calcine"/>
+      <sheetName val="EF1_Data"/>
+      <sheetName val="EF2_Data"/>
+      <sheetName val="EF3_Data"/>
+      <sheetName val="EF4_Data"/>
+      <sheetName val="EFT_Data"/>
+      <sheetName val="Plan"/>
+      <sheetName val="2003 MWH_Plan"/>
+      <sheetName val="PRODUCTION"/>
+      <sheetName val="2003_MWH_Plan"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -26444,10 +26228,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1048576"/>
+  <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A328" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E377" activeCellId="0" sqref="E377"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26460,7 +26244,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="19" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -26514,6 +26298,18 @@
       </c>
       <c r="R1" s="36" t="s">
         <v>89</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26566,7 +26362,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26619,7 +26415,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26672,7 +26468,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26725,7 +26521,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26778,7 +26574,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26831,7 +26627,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26884,7 +26680,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26937,7 +26733,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26990,7 +26786,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27043,7 +26839,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27096,7 +26892,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27149,7 +26945,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27202,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27255,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27308,7 +27104,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27361,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27414,7 +27210,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27467,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27520,7 +27316,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27573,7 +27369,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27626,7 +27422,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27679,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27732,7 +27528,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27785,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27838,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="33" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27891,7 +27687,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27944,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27997,7 +27793,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="33" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28050,7 +27846,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="33" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28103,7 +27899,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="33" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28156,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28209,7 +28005,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="33" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28262,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="33" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28315,7 +28111,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28368,7 +28164,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28421,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28474,7 +28270,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28527,7 +28323,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="33" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28580,7 +28376,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="33" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28633,7 +28429,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="33" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28686,7 +28482,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28739,7 +28535,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28792,7 +28588,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28845,7 +28641,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28898,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28951,7 +28747,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29004,7 +28800,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29057,7 +28853,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29110,7 +28906,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29163,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="157.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29216,7 +29012,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="33" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29269,7 +29065,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29322,7 +29118,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29375,7 +29171,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29428,7 +29224,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29481,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29534,7 +29330,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29587,7 +29383,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29640,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29693,7 +29489,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29746,7 +29542,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29799,7 +29595,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29852,7 +29648,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29905,7 +29701,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29958,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30011,7 +29807,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30064,7 +29860,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30117,7 +29913,7 @@
         <v>0</v>
       </c>
       <c r="Q69" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30170,7 +29966,7 @@
         <v>0</v>
       </c>
       <c r="Q70" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30223,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="Q71" s="33" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30276,7 +30072,7 @@
         <v>0</v>
       </c>
       <c r="Q72" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30329,7 +30125,7 @@
         <v>0</v>
       </c>
       <c r="Q73" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30382,7 +30178,7 @@
         <v>0</v>
       </c>
       <c r="Q74" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30435,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="Q75" s="33" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30488,7 +30284,7 @@
         <v>0</v>
       </c>
       <c r="Q76" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30541,7 +30337,7 @@
         <v>0</v>
       </c>
       <c r="Q77" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30594,7 +30390,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30647,7 +30443,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30700,7 +30496,7 @@
         <v>0</v>
       </c>
       <c r="Q80" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30753,7 +30549,7 @@
         <v>0</v>
       </c>
       <c r="Q81" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30806,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30859,7 +30655,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30912,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="Q84" s="33" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30965,7 +30761,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31018,7 +30814,7 @@
         <v>0</v>
       </c>
       <c r="Q86" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31071,7 +30867,7 @@
         <v>0</v>
       </c>
       <c r="Q87" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31124,7 +30920,7 @@
         <v>0</v>
       </c>
       <c r="Q88" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31177,7 +30973,7 @@
         <v>0</v>
       </c>
       <c r="Q89" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31230,7 +31026,7 @@
         <v>0</v>
       </c>
       <c r="Q90" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31283,7 +31079,7 @@
         <v>0</v>
       </c>
       <c r="Q91" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31336,7 +31132,7 @@
         <v>0</v>
       </c>
       <c r="Q92" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31389,7 +31185,7 @@
         <v>0</v>
       </c>
       <c r="Q93" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31442,7 +31238,7 @@
         <v>0</v>
       </c>
       <c r="Q94" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31495,7 +31291,7 @@
         <v>0</v>
       </c>
       <c r="Q95" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31548,7 +31344,7 @@
         <v>0</v>
       </c>
       <c r="Q96" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31601,7 +31397,7 @@
         <v>0</v>
       </c>
       <c r="Q97" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31654,7 +31450,7 @@
         <v>0</v>
       </c>
       <c r="Q98" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31707,7 +31503,7 @@
         <v>0</v>
       </c>
       <c r="Q99" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31760,7 +31556,7 @@
         <v>0</v>
       </c>
       <c r="Q100" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31813,7 +31609,7 @@
         <v>0</v>
       </c>
       <c r="Q101" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31866,7 +31662,7 @@
         <v>0</v>
       </c>
       <c r="Q102" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31919,7 +31715,7 @@
         <v>0</v>
       </c>
       <c r="Q103" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31972,7 +31768,7 @@
         <v>0</v>
       </c>
       <c r="Q104" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32025,7 +31821,7 @@
         <v>0</v>
       </c>
       <c r="Q105" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32078,7 +31874,7 @@
         <v>0</v>
       </c>
       <c r="Q106" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32131,7 +31927,7 @@
         <v>0</v>
       </c>
       <c r="Q107" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32184,7 +31980,7 @@
         <v>0</v>
       </c>
       <c r="Q108" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32237,7 +32033,7 @@
         <v>0</v>
       </c>
       <c r="Q109" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32290,7 +32086,7 @@
         <v>0</v>
       </c>
       <c r="Q110" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32343,7 +32139,7 @@
         <v>0</v>
       </c>
       <c r="Q111" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32396,7 +32192,7 @@
         <v>0</v>
       </c>
       <c r="Q112" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32449,7 +32245,7 @@
         <v>0</v>
       </c>
       <c r="Q113" s="33" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32502,7 +32298,7 @@
         <v>0</v>
       </c>
       <c r="Q114" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32555,7 +32351,7 @@
         <v>0</v>
       </c>
       <c r="Q115" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32608,7 +32404,7 @@
         <v>0</v>
       </c>
       <c r="Q116" s="33" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32661,7 +32457,7 @@
         <v>0</v>
       </c>
       <c r="Q117" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32714,7 +32510,7 @@
         <v>0</v>
       </c>
       <c r="Q118" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32767,7 +32563,7 @@
         <v>0</v>
       </c>
       <c r="Q119" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32820,7 +32616,7 @@
         <v>0</v>
       </c>
       <c r="Q120" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32873,7 +32669,7 @@
         <v>0</v>
       </c>
       <c r="Q121" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32926,7 +32722,7 @@
         <v>0</v>
       </c>
       <c r="Q122" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32979,7 +32775,7 @@
         <v>0</v>
       </c>
       <c r="Q123" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33032,7 +32828,7 @@
         <v>0</v>
       </c>
       <c r="Q124" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33085,7 +32881,7 @@
         <v>0</v>
       </c>
       <c r="Q125" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33138,7 +32934,7 @@
         <v>0</v>
       </c>
       <c r="Q126" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33191,7 +32987,7 @@
         <v>0</v>
       </c>
       <c r="Q127" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33244,7 +33040,7 @@
         <v>0</v>
       </c>
       <c r="Q128" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33297,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="Q129" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33350,7 +33146,7 @@
         <v>0</v>
       </c>
       <c r="Q130" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33403,7 +33199,7 @@
         <v>0</v>
       </c>
       <c r="Q131" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33456,7 +33252,7 @@
         <v>0</v>
       </c>
       <c r="Q132" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33509,7 +33305,7 @@
         <v>0</v>
       </c>
       <c r="Q133" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33562,7 +33358,7 @@
         <v>0</v>
       </c>
       <c r="Q134" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33615,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="Q135" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33668,7 +33464,7 @@
         <v>0</v>
       </c>
       <c r="Q136" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33721,7 +33517,7 @@
         <v>0</v>
       </c>
       <c r="Q137" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33774,7 +33570,7 @@
         <v>0</v>
       </c>
       <c r="Q138" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33827,7 +33623,7 @@
         <v>0</v>
       </c>
       <c r="Q139" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33880,7 +33676,7 @@
         <v>0</v>
       </c>
       <c r="Q140" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33933,7 +33729,7 @@
         <v>0</v>
       </c>
       <c r="Q141" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33986,7 +33782,7 @@
         <v>0</v>
       </c>
       <c r="Q142" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34039,7 +33835,7 @@
         <v>0</v>
       </c>
       <c r="Q143" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34092,7 +33888,7 @@
         <v>0</v>
       </c>
       <c r="Q144" s="33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34145,7 +33941,7 @@
         <v>0</v>
       </c>
       <c r="Q145" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34198,7 +33994,7 @@
         <v>0</v>
       </c>
       <c r="Q146" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34251,7 +34047,7 @@
         <v>0</v>
       </c>
       <c r="Q147" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34304,7 +34100,7 @@
         <v>0</v>
       </c>
       <c r="Q148" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34357,7 +34153,7 @@
         <v>0</v>
       </c>
       <c r="Q149" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34410,7 +34206,7 @@
         <v>0</v>
       </c>
       <c r="Q150" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34463,7 +34259,7 @@
         <v>0</v>
       </c>
       <c r="Q151" s="33" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34516,7 +34312,7 @@
         <v>0</v>
       </c>
       <c r="Q152" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34569,7 +34365,7 @@
         <v>0</v>
       </c>
       <c r="Q153" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34622,7 +34418,7 @@
         <v>0</v>
       </c>
       <c r="Q154" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34675,7 +34471,7 @@
         <v>0</v>
       </c>
       <c r="Q155" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34728,7 +34524,7 @@
         <v>0</v>
       </c>
       <c r="Q156" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34781,7 +34577,7 @@
         <v>0</v>
       </c>
       <c r="Q157" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34834,7 +34630,7 @@
         <v>0</v>
       </c>
       <c r="Q158" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34887,7 +34683,7 @@
         <v>0</v>
       </c>
       <c r="Q159" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34940,7 +34736,7 @@
         <v>0</v>
       </c>
       <c r="Q160" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34993,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="Q161" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35046,7 +34842,7 @@
         <v>0</v>
       </c>
       <c r="Q162" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35099,7 +34895,7 @@
         <v>0</v>
       </c>
       <c r="Q163" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35152,7 +34948,7 @@
         <v>0</v>
       </c>
       <c r="Q164" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35205,7 +35001,7 @@
         <v>0</v>
       </c>
       <c r="Q165" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35258,7 +35054,7 @@
         <v>0</v>
       </c>
       <c r="Q166" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35311,7 +35107,7 @@
         <v>0</v>
       </c>
       <c r="Q167" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35364,7 +35160,7 @@
         <v>0</v>
       </c>
       <c r="Q168" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35417,7 +35213,7 @@
         <v>0</v>
       </c>
       <c r="Q169" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35470,7 +35266,7 @@
         <v>0</v>
       </c>
       <c r="Q170" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35523,7 +35319,7 @@
         <v>0</v>
       </c>
       <c r="Q171" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35576,7 +35372,7 @@
         <v>0</v>
       </c>
       <c r="Q172" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35629,7 +35425,7 @@
         <v>0</v>
       </c>
       <c r="Q173" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35682,7 +35478,7 @@
         <v>0</v>
       </c>
       <c r="Q174" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35735,7 +35531,7 @@
         <v>0</v>
       </c>
       <c r="Q175" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35788,7 +35584,7 @@
         <v>0</v>
       </c>
       <c r="Q176" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35841,7 +35637,7 @@
         <v>0</v>
       </c>
       <c r="Q177" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35894,7 +35690,7 @@
         <v>0</v>
       </c>
       <c r="Q178" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35947,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="Q179" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36000,7 +35796,7 @@
         <v>0</v>
       </c>
       <c r="Q180" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36053,7 +35849,7 @@
         <v>0</v>
       </c>
       <c r="Q181" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36106,7 +35902,7 @@
         <v>0</v>
       </c>
       <c r="Q182" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36159,7 +35955,7 @@
         <v>0</v>
       </c>
       <c r="Q183" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36212,7 +36008,7 @@
         <v>0</v>
       </c>
       <c r="Q184" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36265,7 +36061,7 @@
         <v>0</v>
       </c>
       <c r="Q185" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36318,7 +36114,7 @@
         <v>0</v>
       </c>
       <c r="Q186" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36371,7 +36167,7 @@
         <v>0</v>
       </c>
       <c r="Q187" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36424,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q188" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36477,7 +36273,7 @@
         <v>0</v>
       </c>
       <c r="Q189" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36530,7 +36326,7 @@
         <v>0</v>
       </c>
       <c r="Q190" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36583,7 +36379,7 @@
         <v>0</v>
       </c>
       <c r="Q191" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36636,7 +36432,7 @@
         <v>0</v>
       </c>
       <c r="Q192" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36689,7 +36485,7 @@
         <v>0</v>
       </c>
       <c r="Q193" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36742,7 +36538,7 @@
         <v>0</v>
       </c>
       <c r="Q194" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36795,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="Q195" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36848,7 +36644,7 @@
         <v>0</v>
       </c>
       <c r="Q196" s="33" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36901,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="Q197" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36954,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="Q198" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37007,7 +36803,7 @@
         <v>0</v>
       </c>
       <c r="Q199" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37060,7 +36856,7 @@
         <v>0</v>
       </c>
       <c r="Q200" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37113,7 +36909,7 @@
         <v>0</v>
       </c>
       <c r="Q201" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37166,7 +36962,7 @@
         <v>0</v>
       </c>
       <c r="Q202" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37219,7 +37015,7 @@
         <v>0</v>
       </c>
       <c r="Q203" s="33" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37272,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="Q204" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37325,7 +37121,7 @@
         <v>0</v>
       </c>
       <c r="Q205" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37378,7 +37174,7 @@
         <v>0</v>
       </c>
       <c r="Q206" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37431,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="Q207" s="33" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37484,7 +37280,7 @@
         <v>0</v>
       </c>
       <c r="Q208" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37537,7 +37333,7 @@
         <v>0</v>
       </c>
       <c r="Q209" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37590,7 +37386,7 @@
         <v>0</v>
       </c>
       <c r="Q210" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37643,7 +37439,7 @@
         <v>0</v>
       </c>
       <c r="Q211" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37696,7 +37492,7 @@
         <v>0</v>
       </c>
       <c r="Q212" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37749,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="Q213" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37802,7 +37598,7 @@
         <v>0</v>
       </c>
       <c r="Q214" s="33" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37855,7 +37651,7 @@
         <v>0</v>
       </c>
       <c r="Q215" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37908,7 +37704,7 @@
         <v>0</v>
       </c>
       <c r="Q216" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37961,7 +37757,7 @@
         <v>0</v>
       </c>
       <c r="Q217" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38014,7 +37810,7 @@
         <v>0</v>
       </c>
       <c r="Q218" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38067,7 +37863,7 @@
         <v>0</v>
       </c>
       <c r="Q219" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38120,7 +37916,7 @@
         <v>0</v>
       </c>
       <c r="Q220" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38173,7 +37969,7 @@
         <v>0</v>
       </c>
       <c r="Q221" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38226,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="Q222" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38279,7 +38075,7 @@
         <v>0</v>
       </c>
       <c r="Q223" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38332,7 +38128,7 @@
         <v>0</v>
       </c>
       <c r="Q224" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38385,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="Q225" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38438,7 +38234,7 @@
         <v>0</v>
       </c>
       <c r="Q226" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38491,7 +38287,7 @@
         <v>0</v>
       </c>
       <c r="Q227" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38544,7 +38340,7 @@
         <v>0</v>
       </c>
       <c r="Q228" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38597,7 +38393,7 @@
         <v>0</v>
       </c>
       <c r="Q229" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38650,7 +38446,7 @@
         <v>0</v>
       </c>
       <c r="Q230" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38703,7 +38499,7 @@
         <v>0</v>
       </c>
       <c r="Q231" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38756,7 +38552,7 @@
         <v>0</v>
       </c>
       <c r="Q232" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38809,7 +38605,7 @@
         <v>0</v>
       </c>
       <c r="Q233" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38862,7 +38658,7 @@
         <v>0</v>
       </c>
       <c r="Q234" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38915,7 +38711,7 @@
         <v>0</v>
       </c>
       <c r="Q235" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38968,7 +38764,7 @@
         <v>0</v>
       </c>
       <c r="Q236" s="33" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39021,7 +38817,7 @@
         <v>0</v>
       </c>
       <c r="Q237" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39074,7 +38870,7 @@
         <v>0</v>
       </c>
       <c r="Q238" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39127,7 +38923,7 @@
         <v>0</v>
       </c>
       <c r="Q239" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39180,7 +38976,7 @@
         <v>0</v>
       </c>
       <c r="Q240" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39233,7 +39029,7 @@
         <v>0</v>
       </c>
       <c r="Q241" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39286,7 +39082,7 @@
         <v>0</v>
       </c>
       <c r="Q242" s="33" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39339,7 +39135,7 @@
         <v>0</v>
       </c>
       <c r="Q243" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39392,7 +39188,7 @@
         <v>0</v>
       </c>
       <c r="Q244" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39445,7 +39241,7 @@
         <v>0</v>
       </c>
       <c r="Q245" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39498,7 +39294,7 @@
         <v>0</v>
       </c>
       <c r="Q246" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39551,7 +39347,7 @@
         <v>0</v>
       </c>
       <c r="Q247" s="33" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39604,7 +39400,7 @@
         <v>0</v>
       </c>
       <c r="Q248" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39657,7 +39453,7 @@
         <v>0</v>
       </c>
       <c r="Q249" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39710,7 +39506,7 @@
         <v>0</v>
       </c>
       <c r="Q250" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39763,7 +39559,7 @@
         <v>0</v>
       </c>
       <c r="Q251" s="33" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39816,7 +39612,7 @@
         <v>0</v>
       </c>
       <c r="Q252" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39869,7 +39665,7 @@
         <v>0</v>
       </c>
       <c r="Q253" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39922,7 +39718,7 @@
         <v>0</v>
       </c>
       <c r="Q254" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39975,7 +39771,7 @@
         <v>0</v>
       </c>
       <c r="Q255" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40028,7 +39824,7 @@
         <v>0</v>
       </c>
       <c r="Q256" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40081,7 +39877,7 @@
         <v>0</v>
       </c>
       <c r="Q257" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40134,7 +39930,7 @@
         <v>0</v>
       </c>
       <c r="Q258" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40187,7 +39983,7 @@
         <v>0</v>
       </c>
       <c r="Q259" s="33" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40240,7 +40036,7 @@
         <v>0</v>
       </c>
       <c r="Q260" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="112.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40293,7 +40089,7 @@
         <v>0</v>
       </c>
       <c r="Q261" s="33" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40346,7 +40142,7 @@
         <v>0</v>
       </c>
       <c r="Q262" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40399,7 +40195,7 @@
         <v>0</v>
       </c>
       <c r="Q263" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40452,7 +40248,7 @@
         <v>0</v>
       </c>
       <c r="Q264" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40505,7 +40301,7 @@
         <v>0</v>
       </c>
       <c r="Q265" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40558,7 +40354,7 @@
         <v>0</v>
       </c>
       <c r="Q266" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40611,7 +40407,7 @@
         <v>0</v>
       </c>
       <c r="Q267" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40664,7 +40460,7 @@
         <v>0</v>
       </c>
       <c r="Q268" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40717,7 +40513,7 @@
         <v>0</v>
       </c>
       <c r="Q269" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40770,7 +40566,7 @@
         <v>0</v>
       </c>
       <c r="Q270" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40823,7 +40619,7 @@
         <v>0</v>
       </c>
       <c r="Q271" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40876,7 +40672,7 @@
         <v>0</v>
       </c>
       <c r="Q272" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40929,7 +40725,7 @@
         <v>0</v>
       </c>
       <c r="Q273" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40982,7 +40778,7 @@
         <v>0</v>
       </c>
       <c r="Q274" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41035,7 +40831,7 @@
         <v>0</v>
       </c>
       <c r="Q275" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41088,7 +40884,7 @@
         <v>0</v>
       </c>
       <c r="Q276" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41141,7 +40937,7 @@
         <v>0</v>
       </c>
       <c r="Q277" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41194,7 +40990,7 @@
         <v>0</v>
       </c>
       <c r="Q278" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41247,7 +41043,7 @@
         <v>0</v>
       </c>
       <c r="Q279" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41300,7 +41096,7 @@
         <v>0</v>
       </c>
       <c r="Q280" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41353,7 +41149,7 @@
         <v>0</v>
       </c>
       <c r="Q281" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41406,7 +41202,7 @@
         <v>0</v>
       </c>
       <c r="Q282" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41459,7 +41255,7 @@
         <v>0</v>
       </c>
       <c r="Q283" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41512,7 +41308,7 @@
         <v>0</v>
       </c>
       <c r="Q284" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41565,7 +41361,7 @@
         <v>0</v>
       </c>
       <c r="Q285" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41618,7 +41414,7 @@
         <v>0</v>
       </c>
       <c r="Q286" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41671,7 +41467,7 @@
         <v>0</v>
       </c>
       <c r="Q287" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41724,7 +41520,7 @@
         <v>0</v>
       </c>
       <c r="Q288" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41777,7 +41573,7 @@
         <v>0</v>
       </c>
       <c r="Q289" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41830,7 +41626,7 @@
         <v>0</v>
       </c>
       <c r="Q290" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41883,7 +41679,7 @@
         <v>0</v>
       </c>
       <c r="Q291" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41936,7 +41732,7 @@
         <v>0</v>
       </c>
       <c r="Q292" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41989,7 +41785,7 @@
         <v>0</v>
       </c>
       <c r="Q293" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42042,7 +41838,7 @@
         <v>0</v>
       </c>
       <c r="Q294" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42095,7 +41891,7 @@
         <v>0</v>
       </c>
       <c r="Q295" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42148,7 +41944,7 @@
         <v>0</v>
       </c>
       <c r="Q296" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42201,7 +41997,7 @@
         <v>0</v>
       </c>
       <c r="Q297" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42254,7 +42050,7 @@
         <v>0</v>
       </c>
       <c r="Q298" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42307,7 +42103,7 @@
         <v>0</v>
       </c>
       <c r="Q299" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42360,7 +42156,7 @@
         <v>0</v>
       </c>
       <c r="Q300" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42413,7 +42209,7 @@
         <v>0</v>
       </c>
       <c r="Q301" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42466,7 +42262,7 @@
         <v>0</v>
       </c>
       <c r="Q302" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42519,7 +42315,7 @@
         <v>0</v>
       </c>
       <c r="Q303" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42572,7 +42368,7 @@
         <v>0</v>
       </c>
       <c r="Q304" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42625,7 +42421,7 @@
         <v>0</v>
       </c>
       <c r="Q305" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42678,7 +42474,7 @@
         <v>0</v>
       </c>
       <c r="Q306" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42731,7 +42527,7 @@
         <v>0</v>
       </c>
       <c r="Q307" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42784,7 +42580,7 @@
         <v>0</v>
       </c>
       <c r="Q308" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42837,7 +42633,7 @@
         <v>0</v>
       </c>
       <c r="Q309" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42890,7 +42686,7 @@
         <v>0</v>
       </c>
       <c r="Q310" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42943,7 +42739,7 @@
         <v>0</v>
       </c>
       <c r="Q311" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42996,7 +42792,7 @@
         <v>0</v>
       </c>
       <c r="Q312" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43049,7 +42845,7 @@
         <v>0</v>
       </c>
       <c r="Q313" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43102,7 +42898,7 @@
         <v>0</v>
       </c>
       <c r="Q314" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43155,7 +42951,7 @@
         <v>0</v>
       </c>
       <c r="Q315" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43208,7 +43004,7 @@
         <v>0</v>
       </c>
       <c r="Q316" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43261,7 +43057,7 @@
         <v>0</v>
       </c>
       <c r="Q317" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43314,7 +43110,7 @@
         <v>0</v>
       </c>
       <c r="Q318" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43367,7 +43163,7 @@
         <v>0</v>
       </c>
       <c r="Q319" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43420,7 +43216,7 @@
         <v>0</v>
       </c>
       <c r="Q320" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43473,7 +43269,7 @@
         <v>0</v>
       </c>
       <c r="Q321" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43526,7 +43322,7 @@
         <v>0</v>
       </c>
       <c r="Q322" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43579,7 +43375,7 @@
         <v>0</v>
       </c>
       <c r="Q323" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43632,7 +43428,7 @@
         <v>0</v>
       </c>
       <c r="Q324" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43685,7 +43481,7 @@
         <v>0</v>
       </c>
       <c r="Q325" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43738,7 +43534,7 @@
         <v>0</v>
       </c>
       <c r="Q326" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43791,7 +43587,7 @@
         <v>0</v>
       </c>
       <c r="Q327" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43844,7 +43640,7 @@
         <v>0</v>
       </c>
       <c r="Q328" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43897,7 +43693,7 @@
         <v>0</v>
       </c>
       <c r="Q329" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43950,7 +43746,7 @@
         <v>0</v>
       </c>
       <c r="Q330" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44003,7 +43799,7 @@
         <v>0</v>
       </c>
       <c r="Q331" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44056,7 +43852,7 @@
         <v>0</v>
       </c>
       <c r="Q332" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44109,7 +43905,7 @@
         <v>0</v>
       </c>
       <c r="Q333" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44162,7 +43958,7 @@
         <v>0</v>
       </c>
       <c r="Q334" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44215,7 +44011,7 @@
         <v>0</v>
       </c>
       <c r="Q335" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44268,7 +44064,7 @@
         <v>0</v>
       </c>
       <c r="Q336" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44321,7 +44117,7 @@
         <v>0</v>
       </c>
       <c r="Q337" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44374,7 +44170,7 @@
         <v>0</v>
       </c>
       <c r="Q338" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44427,7 +44223,7 @@
         <v>0</v>
       </c>
       <c r="Q339" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44480,7 +44276,7 @@
         <v>0</v>
       </c>
       <c r="Q340" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44533,7 +44329,7 @@
         <v>0</v>
       </c>
       <c r="Q341" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44586,7 +44382,7 @@
         <v>0</v>
       </c>
       <c r="Q342" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44639,7 +44435,7 @@
         <v>0</v>
       </c>
       <c r="Q343" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44692,7 +44488,7 @@
         <v>0</v>
       </c>
       <c r="Q344" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44745,7 +44541,7 @@
         <v>0</v>
       </c>
       <c r="Q345" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44798,7 +44594,7 @@
         <v>0</v>
       </c>
       <c r="Q346" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44851,7 +44647,7 @@
         <v>0</v>
       </c>
       <c r="Q347" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44904,7 +44700,7 @@
         <v>0</v>
       </c>
       <c r="Q348" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44957,7 +44753,7 @@
         <v>0</v>
       </c>
       <c r="Q349" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45010,7 +44806,7 @@
         <v>0</v>
       </c>
       <c r="Q350" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45063,7 +44859,7 @@
         <v>0</v>
       </c>
       <c r="Q351" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45116,7 +44912,7 @@
         <v>0</v>
       </c>
       <c r="Q352" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45169,7 +44965,7 @@
         <v>0</v>
       </c>
       <c r="Q353" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45222,7 +45018,7 @@
         <v>0</v>
       </c>
       <c r="Q354" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45275,7 +45071,7 @@
         <v>0</v>
       </c>
       <c r="Q355" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45328,7 +45124,7 @@
         <v>0</v>
       </c>
       <c r="Q356" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45381,7 +45177,7 @@
         <v>0</v>
       </c>
       <c r="Q357" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45434,7 +45230,7 @@
         <v>0</v>
       </c>
       <c r="Q358" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45487,7 +45283,7 @@
         <v>0</v>
       </c>
       <c r="Q359" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45540,7 +45336,7 @@
         <v>0</v>
       </c>
       <c r="Q360" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45593,7 +45389,7 @@
         <v>0</v>
       </c>
       <c r="Q361" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45646,7 +45442,7 @@
         <v>0</v>
       </c>
       <c r="Q362" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45699,7 +45495,7 @@
         <v>0</v>
       </c>
       <c r="Q363" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45752,7 +45548,7 @@
         <v>0</v>
       </c>
       <c r="Q364" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45805,7 +45601,7 @@
         <v>0</v>
       </c>
       <c r="Q365" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Vale/Docs/DataPA/PA_Summary_2023.xlsx
+++ b/Vale/Docs/DataPA/PA_Summary_2023.xlsx
@@ -22,9 +22,6 @@
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
-    <externalReference r:id="rId15"/>
-    <externalReference r:id="rId16"/>
-    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName function="false" hidden="false" name="aclbseadj" vbProcedure="false">[6]Data!$FL$6:$FL$57</definedName>
@@ -164,7 +161,6 @@
     <definedName function="false" hidden="false" name="Dust_Emmision" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="Dust_Handling" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="e" vbProcedure="false">Dryer_Balance</definedName>
-    <definedName function="false" hidden="false" name="East_Block" vbProcedure="false">[14]EBO!$A$2:$K$58</definedName>
     <definedName function="false" hidden="false" name="EBDKPN" vbProcedure="false">'[2]DK EBO'!$A$81:$L$96</definedName>
     <definedName function="false" hidden="false" name="EBDKPT" vbProcedure="false">'[2]DK EBO'!$A$17:$L$80</definedName>
     <definedName function="false" hidden="false" name="EF" vbProcedure="false">#REF!</definedName>
@@ -220,9 +216,7 @@
     <definedName function="false" hidden="false" name="EF_Annual" vbProcedure="false">'[4]ef#1'!#ref!</definedName>
     <definedName function="false" hidden="false" name="EF_Delay" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="EF_Shift_Data" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="facpjj" vbProcedure="false">[15]Petea_Q1!$P$4:$W$9</definedName>
     <definedName function="false" hidden="false" name="factor" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="factors" vbProcedure="false">[16]PARAMETER!$B$5:$I$12</definedName>
     <definedName function="false" hidden="false" name="FCEPAR" vbProcedure="false">[2]efledger!#ref!</definedName>
     <definedName function="false" hidden="false" name="FEB" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="Feed_rate_Cht" vbProcedure="false">#REF!</definedName>
@@ -304,7 +298,6 @@
     <definedName function="false" hidden="false" name="Performance1" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="Performance2" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="Period" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="pet_factor" vbProcedure="false">[16]PARAMETER!$K$17:$R$33</definedName>
     <definedName function="false" hidden="false" name="PG_14" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="PG_15" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="PG_16" vbProcedure="false">#REF!</definedName>
@@ -444,7 +437,6 @@
     <definedName function="false" hidden="false" name="WeekSheetName" vbProcedure="false">[13]Generator!$B$21:$B$25</definedName>
     <definedName function="false" hidden="false" name="WeekSheetTable" vbProcedure="false">[13]Generator!$A$21:$B$25</definedName>
     <definedName function="false" hidden="false" name="WEST_2010" vbProcedure="false">Dryer_Balance</definedName>
-    <definedName function="false" hidden="false" name="west_factor" vbProcedure="false">[16]PARAMETER!$B$17:$I$38</definedName>
     <definedName function="false" hidden="false" name="WF" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="wkmth" vbProcedure="false">[6]Data!$F$6:$F$57</definedName>
     <definedName function="false" hidden="false" name="Wk_Chart1" vbProcedure="false">#REF!</definedName>
@@ -1477,7 +1469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="159">
   <si>
     <t xml:space="preserve">Unit</t>
   </si>
@@ -1769,6 +1761,18 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Standby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put on Standby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare Split to Grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCE Grid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asep Mulyana:
 PM Check Yearly
 </t>
@@ -1779,6 +1783,9 @@
 Asep Mulyana:
 LGS#1 put on standby due to prepare split to Auxiliary grid. 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auxiliary Grid</t>
   </si>
   <si>
     <t xml:space="preserve">Asep Mulyana:
@@ -1795,6 +1802,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Speed No Load</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asep Mulyana:
 LGS#1 prepare split to FCE grid
 </t>
@@ -1804,6 +1814,12 @@
 LGS#1 back online and ready to supply FCE grid outage 0.15 hrs
 - LGS#1 back online and ready to supply Aux grid outage 0.03 hrs
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back in Supply to Grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCE Grid, Auxiliary Grid</t>
   </si>
   <si>
     <t xml:space="preserve">Asep Mulyana:
@@ -1854,16 +1870,40 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Blackout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment Trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1L1 CB; A1L12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asep Mulyana:
 Furnace grid BO - Load shedding active
 A1L1 CB, A1L2 CB, A1-G1 CB, A1-G2 CB, A1-G3 CB, A3G1 CB, A3G2 CB, BGS 52-G1 CB, BGS 52-G2 CB &amp; KGS 52-G1 CB was open
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Unconfirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grid Blackout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1L1 CB, A1L2 CB, A1-G1 CB, A1-G2 CB, A1-G3 CB,</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asep Mulyana:
 TBO occurred, A1G1 CB, A1G2 CB, A1G3 CB, BLB 52G1 CB, BLB 52G2 CB, BLB A3G1 CB, BLB A3G2 
 CB, KRB 52G1 CB, KRB 52G2 CB &amp; LRN A1L1 CB was trip. 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1G1 CB, A1G2 CB, A1G3 CB</t>
   </si>
   <si>
     <t xml:space="preserve">Asep Mulyana:
@@ -1877,9 +1917,30 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shutdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check and Repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTX</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asep Mulyana:
 LGS#1 shutdown for replace 10 ea carbon brush
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Plant Outage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repair Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Brush</t>
   </si>
   <si>
     <t xml:space="preserve">Asep Mulyana:
@@ -1887,9 +1948,18 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186 TX Hand Reset Lockout Relay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asep Mulyana:
 LGS#1 trip by 86N relay energized (TGB Oil level low alarm trip) 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGB</t>
   </si>
   <si>
     <t xml:space="preserve">Asep Mulyana:
@@ -1902,9 +1972,15 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">LGS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asep Mulyana:
 LGS#1 shut down 8 hrs for PMO HIRA &amp; General PM Check. 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIRA, General PM Check</t>
   </si>
   <si>
     <t xml:space="preserve">Asep Mulyana:
@@ -1916,6 +1992,9 @@
     <t xml:space="preserve">Asep Mulyana:
 Furnace BO occurred, A1G1 CB, Bano 52G1, Bano 52G2, KRB 52G1 CB was trip to Turbine operation by Under Frequency &amp; LGS#1 was trip by over Excitacy.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turbine</t>
   </si>
   <si>
     <t xml:space="preserve">Asep Mulyana:
@@ -1941,6 +2020,9 @@
     <t xml:space="preserve">Asep Mulyana:
 LGS#1 split to Bus A12.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus A12</t>
   </si>
   <si>
     <t xml:space="preserve">Asep Mulyana:
@@ -1969,7 +2051,7 @@
     <numFmt numFmtId="171" formatCode="0"/>
     <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2038,6 +2120,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2227,7 +2315,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2380,6 +2468,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2456,72 +2548,106 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Production"/>
-      <sheetName val="Avg_Pow and Prd Chte"/>
-      <sheetName val="Prd_Cht"/>
-      <sheetName val="Scrap_CS_MP"/>
-      <sheetName val="Dust Handling Cht"/>
-      <sheetName val="DKP_RKF_EFF"/>
+      <sheetName val="Process Cost Input"/>
+      <sheetName val="Mine Cost Input"/>
+      <sheetName val="Compartment"/>
+      <sheetName val="Blend Grade"/>
+      <sheetName val="Revenue"/>
+      <sheetName val="Ranking"/>
+      <sheetName val="Overall Rank"/>
+      <sheetName val="SS#5 Rank"/>
+      <sheetName val="SS#8 Rank"/>
+      <sheetName val="SS#9 Rank"/>
+      <sheetName val="SS#10 Rank"/>
+      <sheetName val="SS#11 Rank"/>
+      <sheetName val="SS#12 Rank"/>
       <sheetName val="Feed rate_cht"/>
       <sheetName val="Availability"/>
-      <sheetName val=" EFS_EFM"/>
-      <sheetName val="52wks Rolling data"/>
-      <sheetName val="Plan vs Actual"/>
-      <sheetName val="EF3 Loss"/>
-      <sheetName val="DK_Delay"/>
-      <sheetName val="RK_Delay"/>
-      <sheetName val="CT_Delay"/>
-      <sheetName val="EF_Delay"/>
-      <sheetName val="Power&gt;80%"/>
-      <sheetName val="DKP SCR_Cht"/>
-      <sheetName val="WP_Menu"/>
-      <sheetName val="WK_Balance"/>
-      <sheetName val="dBase _3P2"/>
-      <sheetName val="Index_Data"/>
-      <sheetName val=" Prod Cht"/>
-      <sheetName val="Recovery"/>
-      <sheetName val="Power Utilization"/>
-      <sheetName val="Wk_Report Data"/>
-      <sheetName val="EDS Cht"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="WK Data Utilization"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+      <sheetName val="Contents"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="KPIs"/>
+      <sheetName val="Annual Operating Costs"/>
+      <sheetName val="Op Costs by area"/>
+      <sheetName val="1. Financial forecasts"/>
+      <sheetName val="Profit and loss"/>
+      <sheetName val="Cash flow"/>
+      <sheetName val="Balance sheet"/>
+      <sheetName val="Reserves"/>
+      <sheetName val="1.B. CAR Tabs"/>
+      <sheetName val="Notes"/>
+      <sheetName val="Charts"/>
+      <sheetName val="Scen Comp (2006)"/>
+      <sheetName val="Scen Comp (2004)"/>
+      <sheetName val="Tables and Results"/>
+      <sheetName val="2. Inputs"/>
+      <sheetName val="Control and Sensitivity"/>
+      <sheetName val="Prices"/>
+      <sheetName val="Mining case inputs"/>
+      <sheetName val="Process inputs"/>
+      <sheetName val="Utilities inputs"/>
+      <sheetName val="Corp Expense inputs"/>
+      <sheetName val="Capital expenditure inputs"/>
+      <sheetName val="Other inputs"/>
+      <sheetName val="Reserve inputs"/>
+      <sheetName val="Balance sheet inputs"/>
+      <sheetName val="3. Mining"/>
+      <sheetName val="DKP production"/>
+      <sheetName val="Mining Costs"/>
+      <sheetName val="4. Process"/>
+      <sheetName val="Nickel in matte production"/>
+      <sheetName val="Process Plant Costs"/>
+      <sheetName val="5. Utilities"/>
+      <sheetName val="Utilities production"/>
+      <sheetName val="Utilities costs"/>
+      <sheetName val="6. Capex &amp; other"/>
+      <sheetName val="Capex"/>
+      <sheetName val="Working Cap"/>
+      <sheetName val="Lease schedule"/>
+      <sheetName val="Other expenses"/>
+      <sheetName val="Rupiah impact"/>
+      <sheetName val="7. Tax"/>
+      <sheetName val="Tax"/>
+      <sheetName val="Indirect taxes &amp; royalties"/>
+      <sheetName val="Accounting depreciation"/>
+      <sheetName val="Tax depreciation prior to 2008"/>
+      <sheetName val="Tax depreciation post 2008"/>
+      <sheetName val="KHP Tax depreciation"/>
+      <sheetName val="Appendix"/>
+      <sheetName val="Chart data"/>
+      <sheetName val="Data validation"/>
+      <sheetName val="Names"/>
+      <sheetName val="Workbook key"/>
+      <sheetName val="Energy"/>
       <sheetName val="52 wks rolling data"/>
-      <sheetName val="2006 Prod Loss"/>
-      <sheetName val="DK EDS"/>
-      <sheetName val="RK EDS"/>
-      <sheetName val="CT_EDS"/>
-      <sheetName val="EF EDS"/>
-      <sheetName val="2004 Prd Loss"/>
-      <sheetName val="Power Availability"/>
-      <sheetName val="Weekly Cht_data"/>
-      <sheetName val="EF SHift Data"/>
-      <sheetName val="Phys_Availibility"/>
-      <sheetName val="Avilability_Data"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="input"/>
-      <sheetName val="dBase__3P2"/>
-      <sheetName val="_Prod_Cht"/>
-      <sheetName val="Power_Utilization"/>
-      <sheetName val="Wk_Report_Data"/>
-      <sheetName val="_EFS_EFM"/>
-      <sheetName val="EDS_Cht"/>
-      <sheetName val="Dust_Handling_Cht"/>
-      <sheetName val="WK_Data_Utilization"/>
-      <sheetName val="52_wks_rolling_data"/>
-      <sheetName val="2006_Prod_Loss"/>
-      <sheetName val="DK_EDS"/>
-      <sheetName val="RK_EDS"/>
-      <sheetName val="EF_EDS"/>
-      <sheetName val="2004_Prd_Loss"/>
-      <sheetName val="Power_Availability"/>
-      <sheetName val="Weekly_Cht_data"/>
-      <sheetName val="EF_SHift_Data"/>
-      <sheetName val="Avg_Pow_and_Prd_Chte"/>
-      <sheetName val="Feed_rate_cht"/>
-      <sheetName val="52wks_Rolling_data"/>
-      <sheetName val="Plan_vs_Actual"/>
-      <sheetName val="EF3_Loss"/>
-      <sheetName val="DKP_SCR_Cht"/>
+      <sheetName val="Production"/>
+      <sheetName val="Generator"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2583,19 +2709,130 @@
       <sheetData sheetId="56"/>
       <sheetData sheetId="57"/>
       <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PM Schedule Revisi 3"/>
+      <sheetName val="Availability"/>
+      <sheetName val="Compliance"/>
+      <sheetName val="Revision History"/>
+      <sheetName val="lookup"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="rev"/>
+      <sheetName val="actual"/>
+      <sheetName val="actual-M"/>
+      <sheetName val="chart"/>
+      <sheetName val="Map"/>
+      <sheetName val="Grade Calculator (2)"/>
+      <sheetName val="CCP2-2Y"/>
+      <sheetName val="historical"/>
+      <sheetName val="Shutdown"/>
+      <sheetName val="Major Shutdown"/>
+      <sheetName val="Reforcast"/>
+      <sheetName val="cpanel"/>
+      <sheetName val="summary"/>
+      <sheetName val="monthly"/>
+      <sheetName val="weekly"/>
+      <sheetName val="bulk-chart"/>
+      <sheetName val="bulk"/>
+      <sheetName val="shipment"/>
+      <sheetName val="oee"/>
+      <sheetName val="2015"/>
+      <sheetName val="2016"/>
+      <sheetName val="Master Schedule"/>
+      <sheetName val="2017"/>
+      <sheetName val="OD OF Historical"/>
+      <sheetName val="EF OF Historical"/>
+      <sheetName val="RK OF Historical"/>
+      <sheetName val="CV OF Historical"/>
+      <sheetName val="Balance"/>
+      <sheetName val="2015Mine"/>
+      <sheetName val="2016Mine"/>
+      <sheetName val="2016Mine-Ori"/>
+      <sheetName val="2017Mine"/>
+      <sheetName val="2017Mine-Ori"/>
+      <sheetName val="Individual"/>
+      <sheetName val="Operating Data"/>
+      <sheetName val="Process Variables"/>
+      <sheetName val="Inv &amp; Comp"/>
+      <sheetName val="Equipment &amp; Dashboard"/>
+      <sheetName val="CCP2-6M"/>
+      <sheetName val="Grade Calculator"/>
+      <sheetName val="check mine"/>
+      <sheetName val="MP_Inv"/>
+      <sheetName val="Scrap_Inv"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2688,7 +2925,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2717,7 +2954,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2846,7 +3083,44 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="production"/>
+      <sheetName val="costs"/>
+      <sheetName val="assumptions"/>
+      <sheetName val="lookup"/>
+      <sheetName val="PLAN_PROD"/>
+      <sheetName val="EFLEDGER"/>
+      <sheetName val="Fce Performance"/>
+      <sheetName val="DK EBO"/>
+      <sheetName val="DK WBO"/>
+      <sheetName val="DK TOTAL"/>
+      <sheetName val="Dryer Performance"/>
+      <sheetName val="RKLEDGER"/>
+      <sheetName val="CVLEDGER"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3171,220 +3445,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="production"/>
-      <sheetName val="costs"/>
-      <sheetName val="assumptions"/>
-      <sheetName val="lookup"/>
-      <sheetName val="PLAN_PROD"/>
-      <sheetName val="EFLEDGER"/>
-      <sheetName val="Fce Performance"/>
-      <sheetName val="DK EBO"/>
-      <sheetName val="DK WBO"/>
-      <sheetName val="DK TOTAL"/>
-      <sheetName val="Dryer Performance"/>
-      <sheetName val="RKLEDGER"/>
-      <sheetName val="CVLEDGER"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Contents"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="KPIs"/>
-      <sheetName val="Annual Operating Costs"/>
-      <sheetName val="Op Costs by area"/>
-      <sheetName val="1. Financial forecasts"/>
-      <sheetName val="Profit and loss"/>
-      <sheetName val="Cash flow"/>
-      <sheetName val="Balance sheet"/>
-      <sheetName val="Reserves"/>
-      <sheetName val="1.B. CAR Tabs"/>
-      <sheetName val="Notes"/>
-      <sheetName val="Charts"/>
-      <sheetName val="Scen Comp (2006)"/>
-      <sheetName val="Scen Comp (2004)"/>
-      <sheetName val="Tables and Results"/>
-      <sheetName val="2. Inputs"/>
-      <sheetName val="Control and Sensitivity"/>
-      <sheetName val="Prices"/>
-      <sheetName val="Mining case inputs"/>
-      <sheetName val="Process inputs"/>
-      <sheetName val="Utilities inputs"/>
-      <sheetName val="Corp Expense inputs"/>
-      <sheetName val="Capital expenditure inputs"/>
-      <sheetName val="Other inputs"/>
-      <sheetName val="Reserve inputs"/>
-      <sheetName val="Balance sheet inputs"/>
-      <sheetName val="3. Mining"/>
-      <sheetName val="DKP production"/>
-      <sheetName val="Mining Costs"/>
-      <sheetName val="4. Process"/>
-      <sheetName val="Nickel in matte production"/>
-      <sheetName val="Process Plant Costs"/>
-      <sheetName val="5. Utilities"/>
-      <sheetName val="Utilities production"/>
-      <sheetName val="Utilities costs"/>
-      <sheetName val="6. Capex &amp; other"/>
-      <sheetName val="Capex"/>
-      <sheetName val="Working Cap"/>
-      <sheetName val="Lease schedule"/>
-      <sheetName val="Other expenses"/>
-      <sheetName val="Rupiah impact"/>
-      <sheetName val="7. Tax"/>
-      <sheetName val="Tax"/>
-      <sheetName val="Indirect taxes &amp; royalties"/>
-      <sheetName val="Accounting depreciation"/>
-      <sheetName val="Tax depreciation prior to 2008"/>
-      <sheetName val="Tax depreciation post 2008"/>
-      <sheetName val="KHP Tax depreciation"/>
-      <sheetName val="Appendix"/>
-      <sheetName val="Chart data"/>
-      <sheetName val="Data validation"/>
-      <sheetName val="Names"/>
-      <sheetName val="Workbook key"/>
-      <sheetName val="Energy"/>
-      <sheetName val="52 wks rolling data"/>
-      <sheetName val="Production"/>
-      <sheetName val="Generator"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Page1 of 4"/>
-      <sheetName val="Page2 of 4"/>
-      <sheetName val="Page 3 of 4"/>
-      <sheetName val="Page4 of 4"/>
-      <sheetName val="Data"/>
-      <sheetName val="Module2"/>
-      <sheetName val="Module3"/>
-      <sheetName val="Module1"/>
-      <sheetName val="Table PP"/>
-      <sheetName val="Table Safety"/>
-      <sheetName val="Petea_Q1"/>
-      <sheetName val="Page1_of_4"/>
-      <sheetName val="Page2_of_4"/>
-      <sheetName val="Page_3_of_4"/>
-      <sheetName val="Page4_of_4"/>
-      <sheetName val="Table_PP"/>
-      <sheetName val="Table_Safety"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3516,206 +3577,6 @@
       <sheetData sheetId="60"/>
       <sheetData sheetId="61"/>
       <sheetData sheetId="62"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Process Cost Input"/>
-      <sheetName val="Mine Cost Input"/>
-      <sheetName val="Compartment"/>
-      <sheetName val="Blend Grade"/>
-      <sheetName val="Revenue"/>
-      <sheetName val="Ranking"/>
-      <sheetName val="Overall Rank"/>
-      <sheetName val="SS#5 Rank"/>
-      <sheetName val="SS#8 Rank"/>
-      <sheetName val="SS#9 Rank"/>
-      <sheetName val="SS#10 Rank"/>
-      <sheetName val="SS#11 Rank"/>
-      <sheetName val="SS#12 Rank"/>
-      <sheetName val="Feed rate_cht"/>
-      <sheetName val="Availability"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PM Schedule Revisi 3"/>
-      <sheetName val="Availability"/>
-      <sheetName val="Compliance"/>
-      <sheetName val="Revision History"/>
-      <sheetName val="lookup"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="rev"/>
-      <sheetName val="actual"/>
-      <sheetName val="actual-M"/>
-      <sheetName val="chart"/>
-      <sheetName val="Map"/>
-      <sheetName val="Grade Calculator (2)"/>
-      <sheetName val="CCP2-2Y"/>
-      <sheetName val="historical"/>
-      <sheetName val="Shutdown"/>
-      <sheetName val="Major Shutdown"/>
-      <sheetName val="Reforcast"/>
-      <sheetName val="cpanel"/>
-      <sheetName val="summary"/>
-      <sheetName val="monthly"/>
-      <sheetName val="weekly"/>
-      <sheetName val="bulk-chart"/>
-      <sheetName val="bulk"/>
-      <sheetName val="shipment"/>
-      <sheetName val="oee"/>
-      <sheetName val="2015"/>
-      <sheetName val="2016"/>
-      <sheetName val="Master Schedule"/>
-      <sheetName val="2017"/>
-      <sheetName val="OD OF Historical"/>
-      <sheetName val="EF OF Historical"/>
-      <sheetName val="RK OF Historical"/>
-      <sheetName val="CV OF Historical"/>
-      <sheetName val="Balance"/>
-      <sheetName val="2015Mine"/>
-      <sheetName val="2016Mine"/>
-      <sheetName val="2016Mine-Ori"/>
-      <sheetName val="2017Mine"/>
-      <sheetName val="2017Mine-Ori"/>
-      <sheetName val="Individual"/>
-      <sheetName val="Operating Data"/>
-      <sheetName val="Process Variables"/>
-      <sheetName val="Inv &amp; Comp"/>
-      <sheetName val="Equipment &amp; Dashboard"/>
-      <sheetName val="CCP2-6M"/>
-      <sheetName val="Grade Calculator"/>
-      <sheetName val="check mine"/>
-      <sheetName val="MP_Inv"/>
-      <sheetName val="Scrap_Inv"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Update_Data"/>
-      <sheetName val="%Op_time"/>
-      <sheetName val="Pow_Set"/>
-      <sheetName val="Avg_Pow"/>
-      <sheetName val="Calcine"/>
-      <sheetName val="EF1_Data"/>
-      <sheetName val="EF2_Data"/>
-      <sheetName val="EF3_Data"/>
-      <sheetName val="EF4_Data"/>
-      <sheetName val="EFT_Data"/>
-      <sheetName val="Plan"/>
-      <sheetName val="2003 MWH_Plan"/>
-      <sheetName val="PRODUCTION"/>
-      <sheetName val="2003_MWH_Plan"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -26228,13 +26089,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1048576"/>
+  <dimension ref="A1:V366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="R373" activeCellId="0" sqref="R373"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="32" width="12.42"/>
@@ -26312,7 +26175,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="n">
         <v>44926</v>
       </c>
@@ -26365,7 +26228,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="37" t="n">
         <v>44927</v>
       </c>
@@ -26418,7 +26281,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="37" t="n">
         <v>44928</v>
       </c>
@@ -26471,7 +26334,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="37" t="n">
         <v>44929</v>
       </c>
@@ -26524,7 +26387,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="37" t="n">
         <v>44930</v>
       </c>
@@ -26577,7 +26440,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="37" t="n">
         <v>44931</v>
       </c>
@@ -26630,7 +26493,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="37" t="n">
         <v>44932</v>
       </c>
@@ -26683,7 +26546,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="37" t="n">
         <v>44933</v>
       </c>
@@ -26736,7 +26599,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="37" t="n">
         <v>44934</v>
       </c>
@@ -26789,7 +26652,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="n">
         <v>44935</v>
       </c>
@@ -26841,8 +26704,20 @@
       <c r="Q11" s="33" t="s">
         <v>95</v>
       </c>
+      <c r="R11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="n">
         <v>44936</v>
       </c>
@@ -26895,7 +26770,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="37" t="n">
         <v>44937</v>
       </c>
@@ -26948,7 +26823,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="37" t="n">
         <v>44938</v>
       </c>
@@ -27001,7 +26876,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="37" t="n">
         <v>44939</v>
       </c>
@@ -27054,7 +26929,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37" t="n">
         <v>44940</v>
       </c>
@@ -27104,10 +26979,10 @@
         <v>0</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="37" t="n">
         <v>44941</v>
       </c>
@@ -27157,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="37" t="n">
         <v>44942</v>
       </c>
@@ -27210,10 +27085,22 @@
         <v>0</v>
       </c>
       <c r="Q18" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="T18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="19" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="46.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="37" t="n">
         <v>44943</v>
       </c>
@@ -27263,10 +27150,22 @@
         <v>0</v>
       </c>
       <c r="Q19" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="U19" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="20" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="37" t="n">
         <v>44944</v>
       </c>
@@ -27316,10 +27215,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="n">
         <v>44945</v>
       </c>
@@ -27369,10 +27268,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="37" t="n">
         <v>44946</v>
       </c>
@@ -27422,10 +27321,22 @@
         <v>0</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>99</v>
+        <v>104</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="37" t="n">
         <v>44947</v>
       </c>
@@ -27478,7 +27389,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="37" t="n">
         <v>44948</v>
       </c>
@@ -27531,7 +27442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="37" t="n">
         <v>44949</v>
       </c>
@@ -27584,7 +27495,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="37" t="n">
         <v>44950</v>
       </c>
@@ -27634,10 +27545,22 @@
         <v>0</v>
       </c>
       <c r="Q26" s="33" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="37" t="n">
         <v>44951</v>
       </c>
@@ -27690,7 +27613,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="37" t="n">
         <v>44952</v>
       </c>
@@ -27743,7 +27666,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="63.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="37" t="n">
         <v>44953</v>
       </c>
@@ -27793,10 +27716,22 @@
         <v>0</v>
       </c>
       <c r="Q29" s="33" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="37" t="n">
         <v>44954</v>
       </c>
@@ -27846,10 +27781,22 @@
         <v>0</v>
       </c>
       <c r="Q30" s="33" t="s">
-        <v>102</v>
+        <v>110</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="46.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="37" t="n">
         <v>44955</v>
       </c>
@@ -27899,10 +27846,22 @@
         <v>0</v>
       </c>
       <c r="Q31" s="33" t="s">
-        <v>103</v>
+        <v>111</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="37" t="n">
         <v>44956</v>
       </c>
@@ -27955,7 +27914,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="37" t="n">
         <v>44957</v>
       </c>
@@ -28005,10 +27964,22 @@
         <v>0</v>
       </c>
       <c r="Q33" s="33" t="s">
-        <v>104</v>
+        <v>112</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="46.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="37" t="n">
         <v>44958</v>
       </c>
@@ -28058,10 +28029,22 @@
         <v>0</v>
       </c>
       <c r="Q34" s="33" t="s">
-        <v>105</v>
+        <v>113</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="37" t="n">
         <v>44959</v>
       </c>
@@ -28114,7 +28097,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="37" t="n">
         <v>44960</v>
       </c>
@@ -28167,7 +28150,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="37" t="n">
         <v>44961</v>
       </c>
@@ -28220,7 +28203,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="37" t="n">
         <v>44962</v>
       </c>
@@ -28273,7 +28256,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="37" t="n">
         <v>44963</v>
       </c>
@@ -28323,10 +28306,22 @@
         <v>0</v>
       </c>
       <c r="Q39" s="33" t="s">
-        <v>106</v>
+        <v>114</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="46.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="37" t="n">
         <v>44964</v>
       </c>
@@ -28376,10 +28371,22 @@
         <v>0</v>
       </c>
       <c r="Q40" s="33" t="s">
-        <v>107</v>
+        <v>115</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="37" t="n">
         <v>44965</v>
       </c>
@@ -28429,10 +28436,22 @@
         <v>0</v>
       </c>
       <c r="Q41" s="33" t="s">
-        <v>108</v>
+        <v>116</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="37" t="n">
         <v>44966</v>
       </c>
@@ -28485,7 +28504,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="37" t="n">
         <v>44967</v>
       </c>
@@ -28538,7 +28557,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="37" t="n">
         <v>44968</v>
       </c>
@@ -28591,7 +28610,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="37" t="n">
         <v>44969</v>
       </c>
@@ -28644,7 +28663,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="37" t="n">
         <v>44970</v>
       </c>
@@ -28697,7 +28716,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="37" t="n">
         <v>44971</v>
       </c>
@@ -28750,7 +28769,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="37" t="n">
         <v>44972</v>
       </c>
@@ -28803,7 +28822,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="37" t="n">
         <v>44973</v>
       </c>
@@ -28856,7 +28875,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="37" t="n">
         <v>44974</v>
       </c>
@@ -28909,7 +28928,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="37" t="n">
         <v>44975</v>
       </c>
@@ -28962,7 +28981,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="157.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="117.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="37" t="n">
         <v>44976</v>
       </c>
@@ -29012,10 +29031,22 @@
         <v>0</v>
       </c>
       <c r="Q52" s="33" t="s">
-        <v>109</v>
+        <v>117</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="37" t="n">
         <v>44977</v>
       </c>
@@ -29068,7 +29099,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="37" t="n">
         <v>44978</v>
       </c>
@@ -29121,7 +29152,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="37" t="n">
         <v>44979</v>
       </c>
@@ -29174,7 +29205,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="37" t="n">
         <v>44980</v>
       </c>
@@ -29227,7 +29258,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="37" t="n">
         <v>44981</v>
       </c>
@@ -29280,7 +29311,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="37" t="n">
         <v>44982</v>
       </c>
@@ -29333,7 +29364,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="37" t="n">
         <v>44983</v>
       </c>
@@ -29386,7 +29417,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="82.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="37" t="n">
         <v>44984</v>
       </c>
@@ -29436,10 +29467,22 @@
         <v>0</v>
       </c>
       <c r="Q60" s="33" t="s">
-        <v>110</v>
+        <v>122</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U60" s="38" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="37" t="n">
         <v>44985</v>
       </c>
@@ -29492,7 +29535,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="37" t="n">
         <v>44986</v>
       </c>
@@ -29545,7 +29588,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="37" t="n">
         <v>44987</v>
       </c>
@@ -29598,7 +29641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="37" t="n">
         <v>44988</v>
       </c>
@@ -29651,7 +29694,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="37" t="n">
         <v>44989</v>
       </c>
@@ -29704,7 +29747,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="37" t="n">
         <v>44990</v>
       </c>
@@ -29757,7 +29800,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="37" t="n">
         <v>44991</v>
       </c>
@@ -29810,7 +29853,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="37" t="n">
         <v>44992</v>
       </c>
@@ -29863,7 +29906,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="37" t="n">
         <v>44993</v>
       </c>
@@ -29916,7 +29959,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="37" t="n">
         <v>44994</v>
       </c>
@@ -29969,7 +30012,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="73.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="37" t="n">
         <v>44995</v>
       </c>
@@ -30019,10 +30062,22 @@
         <v>0</v>
       </c>
       <c r="Q71" s="33" t="s">
-        <v>111</v>
+        <v>126</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U71" s="38" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="37" t="n">
         <v>44996</v>
       </c>
@@ -30075,7 +30130,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="37" t="n">
         <v>44997</v>
       </c>
@@ -30128,7 +30183,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="37" t="n">
         <v>44998</v>
       </c>
@@ -30181,7 +30236,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="37" t="n">
         <v>44999</v>
       </c>
@@ -30231,10 +30286,22 @@
         <v>0</v>
       </c>
       <c r="Q75" s="33" t="s">
-        <v>112</v>
+        <v>128</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="37" t="n">
         <v>45000</v>
       </c>
@@ -30287,7 +30354,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="37" t="n">
         <v>45001</v>
       </c>
@@ -30340,7 +30407,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="37" t="n">
         <v>45002</v>
       </c>
@@ -30393,7 +30460,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="37" t="n">
         <v>45003</v>
       </c>
@@ -30446,7 +30513,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="37" t="n">
         <v>45004</v>
       </c>
@@ -30499,7 +30566,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="37" t="n">
         <v>45005</v>
       </c>
@@ -30552,7 +30619,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="37" t="n">
         <v>45006</v>
       </c>
@@ -30605,7 +30672,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="37" t="n">
         <v>45007</v>
       </c>
@@ -30658,7 +30725,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="37" t="n">
         <v>45008</v>
       </c>
@@ -30708,10 +30775,22 @@
         <v>0</v>
       </c>
       <c r="Q84" s="33" t="s">
-        <v>113</v>
+        <v>129</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="37" t="n">
         <v>45009</v>
       </c>
@@ -30764,7 +30843,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="37" t="n">
         <v>45010</v>
       </c>
@@ -30817,7 +30896,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="37" t="n">
         <v>45011</v>
       </c>
@@ -30870,7 +30949,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="37" t="n">
         <v>45012</v>
       </c>
@@ -30923,7 +31002,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="37" t="n">
         <v>45013</v>
       </c>
@@ -30976,7 +31055,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="37" t="n">
         <v>45014</v>
       </c>
@@ -31029,7 +31108,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="37" t="n">
         <v>45015</v>
       </c>
@@ -31082,7 +31161,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="37" t="n">
         <v>45016</v>
       </c>
@@ -31135,7 +31214,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="37" t="n">
         <v>45017</v>
       </c>
@@ -31188,7 +31267,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="37" t="n">
         <v>45018</v>
       </c>
@@ -31241,7 +31320,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="37" t="n">
         <v>45019</v>
       </c>
@@ -31294,7 +31373,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="37" t="n">
         <v>45020</v>
       </c>
@@ -31347,7 +31426,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="37" t="n">
         <v>45021</v>
       </c>
@@ -31400,7 +31479,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="37" t="n">
         <v>45022</v>
       </c>
@@ -31453,7 +31532,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="37" t="n">
         <v>45023</v>
       </c>
@@ -31506,7 +31585,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="37" t="n">
         <v>45024</v>
       </c>
@@ -31559,7 +31638,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="37" t="n">
         <v>45025</v>
       </c>
@@ -31612,7 +31691,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="37" t="n">
         <v>45026</v>
       </c>
@@ -31665,7 +31744,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="37" t="n">
         <v>45027</v>
       </c>
@@ -31718,7 +31797,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="37" t="n">
         <v>45028</v>
       </c>
@@ -31771,7 +31850,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="37" t="n">
         <v>45029</v>
       </c>
@@ -31824,7 +31903,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="37" t="n">
         <v>45030</v>
       </c>
@@ -31877,7 +31956,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="37" t="n">
         <v>45031</v>
       </c>
@@ -31930,7 +32009,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="37" t="n">
         <v>45032</v>
       </c>
@@ -31983,7 +32062,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="37" t="n">
         <v>45033</v>
       </c>
@@ -32036,7 +32115,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="37" t="n">
         <v>45034</v>
       </c>
@@ -32089,7 +32168,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="37" t="n">
         <v>45035</v>
       </c>
@@ -32142,7 +32221,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="37" t="n">
         <v>45036</v>
       </c>
@@ -32195,7 +32274,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="37" t="n">
         <v>45037</v>
       </c>
@@ -32245,10 +32324,22 @@
         <v>0</v>
       </c>
       <c r="Q113" s="33" t="s">
-        <v>114</v>
+        <v>134</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T113" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="37" t="n">
         <v>45038</v>
       </c>
@@ -32301,7 +32392,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="37" t="n">
         <v>45039</v>
       </c>
@@ -32354,7 +32445,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="37" t="n">
         <v>45040</v>
       </c>
@@ -32404,10 +32495,22 @@
         <v>0</v>
       </c>
       <c r="Q116" s="33" t="s">
-        <v>115</v>
+        <v>138</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T116" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U116" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="37" t="n">
         <v>45041</v>
       </c>
@@ -32460,7 +32563,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="37" t="n">
         <v>45042</v>
       </c>
@@ -32513,7 +32616,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="37" t="n">
         <v>45043</v>
       </c>
@@ -32566,7 +32669,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="37" t="n">
         <v>45044</v>
       </c>
@@ -32619,7 +32722,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="37" t="n">
         <v>45045</v>
       </c>
@@ -32672,7 +32775,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="37" t="n">
         <v>45046</v>
       </c>
@@ -32725,7 +32828,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="37" t="n">
         <v>45047</v>
       </c>
@@ -32778,7 +32881,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="37" t="n">
         <v>45048</v>
       </c>
@@ -32831,7 +32934,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="37" t="n">
         <v>45049</v>
       </c>
@@ -32884,7 +32987,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="37" t="n">
         <v>45050</v>
       </c>
@@ -32937,7 +33040,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="37" t="n">
         <v>45051</v>
       </c>
@@ -32990,7 +33093,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="37" t="n">
         <v>45052</v>
       </c>
@@ -33043,7 +33146,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="37" t="n">
         <v>45053</v>
       </c>
@@ -33096,7 +33199,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="37" t="n">
         <v>45054</v>
       </c>
@@ -33149,7 +33252,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="37" t="n">
         <v>45055</v>
       </c>
@@ -33202,7 +33305,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="37" t="n">
         <v>45056</v>
       </c>
@@ -33255,7 +33358,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="37" t="n">
         <v>45057</v>
       </c>
@@ -33308,7 +33411,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="37" t="n">
         <v>45058</v>
       </c>
@@ -33361,7 +33464,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="37" t="n">
         <v>45059</v>
       </c>
@@ -33414,7 +33517,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="37" t="n">
         <v>45060</v>
       </c>
@@ -33467,7 +33570,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="37" t="n">
         <v>45061</v>
       </c>
@@ -33520,7 +33623,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="37" t="n">
         <v>45062</v>
       </c>
@@ -33573,7 +33676,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="37" t="n">
         <v>45063</v>
       </c>
@@ -33626,7 +33729,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="37" t="n">
         <v>45064</v>
       </c>
@@ -33679,7 +33782,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="37" t="n">
         <v>45065</v>
       </c>
@@ -33732,7 +33835,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="37" t="n">
         <v>45066</v>
       </c>
@@ -33785,7 +33888,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="37" t="n">
         <v>45067</v>
       </c>
@@ -33838,7 +33941,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="46.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="37" t="n">
         <v>45068</v>
       </c>
@@ -33888,10 +33991,22 @@
         <v>0</v>
       </c>
       <c r="Q144" s="33" t="s">
-        <v>116</v>
+        <v>141</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S144" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T144" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U144" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="37" t="n">
         <v>45069</v>
       </c>
@@ -33944,7 +34059,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="37" t="n">
         <v>45070</v>
       </c>
@@ -33997,7 +34112,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="37" t="n">
         <v>45071</v>
       </c>
@@ -34050,7 +34165,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="37" t="n">
         <v>45072</v>
       </c>
@@ -34103,7 +34218,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="37" t="n">
         <v>45073</v>
       </c>
@@ -34156,7 +34271,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="37" t="n">
         <v>45074</v>
       </c>
@@ -34209,7 +34324,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="46.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="37" t="n">
         <v>45075</v>
       </c>
@@ -34259,10 +34374,22 @@
         <v>0</v>
       </c>
       <c r="Q151" s="33" t="s">
-        <v>117</v>
+        <v>143</v>
+      </c>
+      <c r="R151" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S151" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T151" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="U151" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="37" t="n">
         <v>45076</v>
       </c>
@@ -34315,7 +34442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="37" t="n">
         <v>45077</v>
       </c>
@@ -34368,7 +34495,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="37" t="n">
         <v>45078</v>
       </c>
@@ -34421,7 +34548,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="37" t="n">
         <v>45079</v>
       </c>
@@ -34474,7 +34601,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="37" t="n">
         <v>45080</v>
       </c>
@@ -34527,7 +34654,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="37" t="n">
         <v>45081</v>
       </c>
@@ -34580,7 +34707,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="37" t="n">
         <v>45082</v>
       </c>
@@ -34633,7 +34760,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="37" t="n">
         <v>45083</v>
       </c>
@@ -34686,7 +34813,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="37" t="n">
         <v>45084</v>
       </c>
@@ -34739,7 +34866,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="37" t="n">
         <v>45085</v>
       </c>
@@ -34792,7 +34919,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="37" t="n">
         <v>45086</v>
       </c>
@@ -34845,7 +34972,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="37" t="n">
         <v>45087</v>
       </c>
@@ -34898,7 +35025,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="37" t="n">
         <v>45088</v>
       </c>
@@ -34951,7 +35078,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="37" t="n">
         <v>45089</v>
       </c>
@@ -35004,7 +35131,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="37" t="n">
         <v>45090</v>
       </c>
@@ -35057,7 +35184,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="37" t="n">
         <v>45091</v>
       </c>
@@ -35110,7 +35237,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="37" t="n">
         <v>45092</v>
       </c>
@@ -35163,7 +35290,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="37" t="n">
         <v>45093</v>
       </c>
@@ -35216,7 +35343,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="37" t="n">
         <v>45094</v>
       </c>
@@ -35269,7 +35396,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="37" t="n">
         <v>45095</v>
       </c>
@@ -35322,7 +35449,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="37" t="n">
         <v>45096</v>
       </c>
@@ -35375,7 +35502,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="37" t="n">
         <v>45097</v>
       </c>
@@ -35428,7 +35555,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="37" t="n">
         <v>45098</v>
       </c>
@@ -35481,7 +35608,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="37" t="n">
         <v>45099</v>
       </c>
@@ -35534,7 +35661,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="37" t="n">
         <v>45100</v>
       </c>
@@ -35587,7 +35714,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="37" t="n">
         <v>45101</v>
       </c>
@@ -35640,7 +35767,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="37" t="n">
         <v>45102</v>
       </c>
@@ -35693,7 +35820,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="37" t="n">
         <v>45103</v>
       </c>
@@ -35746,7 +35873,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="37" t="n">
         <v>45104</v>
       </c>
@@ -35799,7 +35926,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="37" t="n">
         <v>45105</v>
       </c>
@@ -35852,7 +35979,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="37" t="n">
         <v>45106</v>
       </c>
@@ -35905,7 +36032,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="37" t="n">
         <v>45107</v>
       </c>
@@ -35958,7 +36085,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="37" t="n">
         <v>45108</v>
       </c>
@@ -36011,7 +36138,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="37" t="n">
         <v>45109</v>
       </c>
@@ -36064,7 +36191,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="37" t="n">
         <v>45110</v>
       </c>
@@ -36117,7 +36244,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="37" t="n">
         <v>45111</v>
       </c>
@@ -36170,7 +36297,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="37" t="n">
         <v>45112</v>
       </c>
@@ -36223,7 +36350,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="37" t="n">
         <v>45113</v>
       </c>
@@ -36276,7 +36403,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="37" t="n">
         <v>45114</v>
       </c>
@@ -36329,7 +36456,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="37" t="n">
         <v>45115</v>
       </c>
@@ -36382,7 +36509,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="37" t="n">
         <v>45116</v>
       </c>
@@ -36435,7 +36562,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="37" t="n">
         <v>45117</v>
       </c>
@@ -36488,7 +36615,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="37" t="n">
         <v>45118</v>
       </c>
@@ -36541,7 +36668,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="37" t="n">
         <v>45119</v>
       </c>
@@ -36594,7 +36721,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="37" t="n">
         <v>45120</v>
       </c>
@@ -36644,10 +36771,22 @@
         <v>0</v>
       </c>
       <c r="Q196" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="R196" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="S196" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T196" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="U196" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="197" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="37" t="n">
         <v>45121</v>
       </c>
@@ -36700,7 +36839,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="37" t="n">
         <v>45122</v>
       </c>
@@ -36753,7 +36892,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="37" t="n">
         <v>45123</v>
       </c>
@@ -36806,7 +36945,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="37" t="n">
         <v>45124</v>
       </c>
@@ -36859,7 +36998,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="37" t="n">
         <v>45125</v>
       </c>
@@ -36912,7 +37051,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="37" t="n">
         <v>45126</v>
       </c>
@@ -36965,7 +37104,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="37" t="n">
         <v>45127</v>
       </c>
@@ -37015,10 +37154,25 @@
         <v>0</v>
       </c>
       <c r="Q203" s="33" t="s">
-        <v>119</v>
+        <v>146</v>
+      </c>
+      <c r="R203" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S203" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T203" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="U203" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V203" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="37" t="n">
         <v>45128</v>
       </c>
@@ -37071,7 +37225,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="37" t="n">
         <v>45129</v>
       </c>
@@ -37124,7 +37278,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="37" t="n">
         <v>45130</v>
       </c>
@@ -37177,7 +37331,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="73.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="37" t="n">
         <v>45131</v>
       </c>
@@ -37227,10 +37381,22 @@
         <v>0</v>
       </c>
       <c r="Q207" s="33" t="s">
-        <v>120</v>
+        <v>148</v>
+      </c>
+      <c r="R207" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S207" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T207" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U207" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="37" t="n">
         <v>45132</v>
       </c>
@@ -37283,7 +37449,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="37" t="n">
         <v>45133</v>
       </c>
@@ -37336,7 +37502,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="37" t="n">
         <v>45134</v>
       </c>
@@ -37389,7 +37555,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="37" t="n">
         <v>45135</v>
       </c>
@@ -37442,7 +37608,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="37" t="n">
         <v>45136</v>
       </c>
@@ -37495,7 +37661,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="37" t="n">
         <v>45137</v>
       </c>
@@ -37548,7 +37714,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="72.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="37" t="n">
         <v>45138</v>
       </c>
@@ -37598,10 +37764,22 @@
         <v>0</v>
       </c>
       <c r="Q214" s="33" t="s">
-        <v>121</v>
+        <v>149</v>
+      </c>
+      <c r="R214" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S214" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T214" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U214" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="37" t="n">
         <v>45139</v>
       </c>
@@ -37654,7 +37832,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="37" t="n">
         <v>45140</v>
       </c>
@@ -37707,7 +37885,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="37" t="n">
         <v>45141</v>
       </c>
@@ -37760,7 +37938,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="37" t="n">
         <v>45142</v>
       </c>
@@ -37813,7 +37991,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="37" t="n">
         <v>45143</v>
       </c>
@@ -37866,7 +38044,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="37" t="n">
         <v>45144</v>
       </c>
@@ -37919,7 +38097,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="37" t="n">
         <v>45145</v>
       </c>
@@ -37972,7 +38150,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="37" t="n">
         <v>45146</v>
       </c>
@@ -38025,7 +38203,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="37" t="n">
         <v>45147</v>
       </c>
@@ -38078,7 +38256,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="37" t="n">
         <v>45148</v>
       </c>
@@ -38131,7 +38309,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="37" t="n">
         <v>45149</v>
       </c>
@@ -38184,7 +38362,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="37" t="n">
         <v>45150</v>
       </c>
@@ -38237,7 +38415,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="37" t="n">
         <v>45151</v>
       </c>
@@ -38290,7 +38468,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="37" t="n">
         <v>45152</v>
       </c>
@@ -38343,7 +38521,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="37" t="n">
         <v>45153</v>
       </c>
@@ -38396,7 +38574,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="37" t="n">
         <v>45154</v>
       </c>
@@ -38449,7 +38627,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="37" t="n">
         <v>45155</v>
       </c>
@@ -38502,7 +38680,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="37" t="n">
         <v>45156</v>
       </c>
@@ -38555,7 +38733,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="37" t="n">
         <v>45157</v>
       </c>
@@ -38608,7 +38786,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="37" t="n">
         <v>45158</v>
       </c>
@@ -38661,7 +38839,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="37" t="n">
         <v>45159</v>
       </c>
@@ -38714,7 +38892,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="37" t="n">
         <v>45160</v>
       </c>
@@ -38764,10 +38942,22 @@
         <v>0</v>
       </c>
       <c r="Q236" s="33" t="s">
-        <v>122</v>
+        <v>151</v>
+      </c>
+      <c r="R236" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S236" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T236" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U236" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="37" t="n">
         <v>45161</v>
       </c>
@@ -38820,7 +39010,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="37" t="n">
         <v>45162</v>
       </c>
@@ -38873,7 +39063,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="37" t="n">
         <v>45163</v>
       </c>
@@ -38926,7 +39116,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="37" t="n">
         <v>45164</v>
       </c>
@@ -38979,7 +39169,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="37" t="n">
         <v>45165</v>
       </c>
@@ -39032,7 +39222,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="37" t="n">
         <v>45166</v>
       </c>
@@ -39082,10 +39272,22 @@
         <v>0</v>
       </c>
       <c r="Q242" s="33" t="s">
-        <v>123</v>
+        <v>152</v>
+      </c>
+      <c r="R242" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S242" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T242" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U242" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="37" t="n">
         <v>45167</v>
       </c>
@@ -39138,7 +39340,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="37" t="n">
         <v>45168</v>
       </c>
@@ -39191,7 +39393,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="37" t="n">
         <v>45169</v>
       </c>
@@ -39244,7 +39446,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="37" t="n">
         <v>45170</v>
       </c>
@@ -39297,7 +39499,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="37" t="n">
         <v>45171</v>
       </c>
@@ -39347,10 +39549,22 @@
         <v>0</v>
       </c>
       <c r="Q247" s="33" t="s">
-        <v>124</v>
+        <v>153</v>
+      </c>
+      <c r="R247" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S247" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T247" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U247" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="37" t="n">
         <v>45172</v>
       </c>
@@ -39403,7 +39617,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="37" t="n">
         <v>45173</v>
       </c>
@@ -39456,7 +39670,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="37" t="n">
         <v>45174</v>
       </c>
@@ -39509,7 +39723,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="37" t="n">
         <v>45175</v>
       </c>
@@ -39559,10 +39773,22 @@
         <v>0</v>
       </c>
       <c r="Q251" s="33" t="s">
-        <v>125</v>
+        <v>154</v>
+      </c>
+      <c r="R251" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S251" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T251" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U251" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="37" t="n">
         <v>45176</v>
       </c>
@@ -39615,7 +39841,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="37" t="n">
         <v>45177</v>
       </c>
@@ -39668,7 +39894,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="37" t="n">
         <v>45178</v>
       </c>
@@ -39721,7 +39947,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="37" t="n">
         <v>45179</v>
       </c>
@@ -39774,7 +40000,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="37" t="n">
         <v>45180</v>
       </c>
@@ -39827,7 +40053,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="37" t="n">
         <v>45181</v>
       </c>
@@ -39880,7 +40106,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="37" t="n">
         <v>45182</v>
       </c>
@@ -39933,7 +40159,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="37" t="n">
         <v>45183</v>
       </c>
@@ -39983,10 +40209,22 @@
         <v>0</v>
       </c>
       <c r="Q259" s="33" t="s">
-        <v>126</v>
+        <v>155</v>
+      </c>
+      <c r="R259" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S259" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T259" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U259" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="37" t="n">
         <v>45184</v>
       </c>
@@ -40039,7 +40277,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="112.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="82.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="37" t="n">
         <v>45185</v>
       </c>
@@ -40089,10 +40327,22 @@
         <v>0</v>
       </c>
       <c r="Q261" s="33" t="s">
-        <v>127</v>
+        <v>157</v>
+      </c>
+      <c r="R261" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S261" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T261" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U261" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="37" t="n">
         <v>45186</v>
       </c>
@@ -40145,7 +40395,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="37" t="n">
         <v>45187</v>
       </c>
@@ -40198,7 +40448,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="37" t="n">
         <v>45188</v>
       </c>
@@ -40251,7 +40501,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="37" t="n">
         <v>45189</v>
       </c>
@@ -40304,7 +40554,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="37" t="n">
         <v>45190</v>
       </c>
@@ -40357,7 +40607,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="37" t="n">
         <v>45191</v>
       </c>
@@ -40410,7 +40660,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="37" t="n">
         <v>45192</v>
       </c>
@@ -40463,7 +40713,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="37" t="n">
         <v>45193</v>
       </c>
@@ -40516,7 +40766,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="37" t="n">
         <v>45194</v>
       </c>
@@ -40569,7 +40819,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="37" t="n">
         <v>45195</v>
       </c>
@@ -40622,7 +40872,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="37" t="n">
         <v>45196</v>
       </c>
@@ -40675,7 +40925,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="37" t="n">
         <v>45197</v>
       </c>
@@ -40728,7 +40978,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="37" t="n">
         <v>45198</v>
       </c>
@@ -40781,7 +41031,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="37" t="n">
         <v>45199</v>
       </c>
@@ -40834,7 +41084,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="37" t="n">
         <v>45200</v>
       </c>
@@ -40887,7 +41137,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="37" t="n">
         <v>45201</v>
       </c>
@@ -40940,7 +41190,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="37" t="n">
         <v>45202</v>
       </c>
@@ -40993,7 +41243,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="37" t="n">
         <v>45203</v>
       </c>
@@ -41043,10 +41293,22 @@
         <v>0</v>
       </c>
       <c r="Q279" s="33" t="s">
-        <v>128</v>
+        <v>158</v>
+      </c>
+      <c r="R279" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S279" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T279" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U279" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="37" t="n">
         <v>45204</v>
       </c>
@@ -41099,7 +41361,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="37" t="n">
         <v>45205</v>
       </c>
@@ -41152,7 +41414,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="37" t="n">
         <v>45206</v>
       </c>
@@ -41205,7 +41467,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="37" t="n">
         <v>45207</v>
       </c>
@@ -41258,7 +41520,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="37" t="n">
         <v>45208</v>
       </c>
@@ -41311,7 +41573,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="37" t="n">
         <v>45209</v>
       </c>
@@ -41364,7 +41626,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="37" t="n">
         <v>45210</v>
       </c>
@@ -41417,7 +41679,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="37" t="n">
         <v>45211</v>
       </c>
@@ -41470,7 +41732,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="37" t="n">
         <v>45212</v>
       </c>
@@ -41523,7 +41785,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="37" t="n">
         <v>45213</v>
       </c>
@@ -41576,7 +41838,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="37" t="n">
         <v>45214</v>
       </c>
@@ -41629,7 +41891,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="37" t="n">
         <v>45215</v>
       </c>
@@ -41682,7 +41944,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="37" t="n">
         <v>45216</v>
       </c>
@@ -41735,7 +41997,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="37" t="n">
         <v>45217</v>
       </c>
@@ -41788,7 +42050,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="37" t="n">
         <v>45218</v>
       </c>
@@ -41841,7 +42103,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="37" t="n">
         <v>45219</v>
       </c>
@@ -41894,7 +42156,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="37" t="n">
         <v>45220</v>
       </c>
@@ -41947,7 +42209,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="37" t="n">
         <v>45221</v>
       </c>
@@ -42000,7 +42262,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="37" t="n">
         <v>45222</v>
       </c>
@@ -42053,7 +42315,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="37" t="n">
         <v>45223</v>
       </c>
@@ -42106,7 +42368,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="37" t="n">
         <v>45224</v>
       </c>
@@ -42159,7 +42421,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="37" t="n">
         <v>45225</v>
       </c>
@@ -42212,7 +42474,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="37" t="n">
         <v>45226</v>
       </c>
@@ -42265,7 +42527,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="37" t="n">
         <v>45227</v>
       </c>
@@ -42318,7 +42580,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="37" t="n">
         <v>45228</v>
       </c>
@@ -42371,7 +42633,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="37" t="n">
         <v>45229</v>
       </c>
@@ -42424,7 +42686,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="37" t="n">
         <v>45230</v>
       </c>
@@ -42477,7 +42739,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="37" t="n">
         <v>45231</v>
       </c>
@@ -42530,7 +42792,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="37" t="n">
         <v>45232</v>
       </c>
@@ -42583,7 +42845,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="37" t="n">
         <v>45233</v>
       </c>
@@ -42636,7 +42898,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="37" t="n">
         <v>45234</v>
       </c>
@@ -42689,7 +42951,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="37" t="n">
         <v>45235</v>
       </c>
@@ -42742,7 +43004,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="37" t="n">
         <v>45236</v>
       </c>
@@ -42795,7 +43057,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="37" t="n">
         <v>45237</v>
       </c>
@@ -42848,7 +43110,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="37" t="n">
         <v>45238</v>
       </c>
@@ -42901,7 +43163,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="37" t="n">
         <v>45239</v>
       </c>
@@ -42954,7 +43216,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="37" t="n">
         <v>45240</v>
       </c>
@@ -43007,7 +43269,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="37" t="n">
         <v>45241</v>
       </c>
@@ -43060,7 +43322,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="37" t="n">
         <v>45242</v>
       </c>
@@ -43113,7 +43375,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="37" t="n">
         <v>45243</v>
       </c>
@@ -43166,7 +43428,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="37" t="n">
         <v>45244</v>
       </c>
@@ -43219,7 +43481,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="37" t="n">
         <v>45245</v>
       </c>
@@ -43272,7 +43534,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="37" t="n">
         <v>45246</v>
       </c>
@@ -43325,7 +43587,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="37" t="n">
         <v>45247</v>
       </c>
@@ -43378,7 +43640,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="37" t="n">
         <v>45248</v>
       </c>
@@ -43431,7 +43693,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="37" t="n">
         <v>45249</v>
       </c>
@@ -43484,7 +43746,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="37" t="n">
         <v>45250</v>
       </c>
@@ -43537,7 +43799,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="37" t="n">
         <v>45251</v>
       </c>
@@ -43590,7 +43852,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="37" t="n">
         <v>45252</v>
       </c>
@@ -43643,7 +43905,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="37" t="n">
         <v>45253</v>
       </c>
@@ -43696,7 +43958,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="37" t="n">
         <v>45254</v>
       </c>
@@ -43749,7 +44011,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="37" t="n">
         <v>45255</v>
       </c>
@@ -43802,7 +44064,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="37" t="n">
         <v>45256</v>
       </c>
@@ -43855,7 +44117,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="37" t="n">
         <v>45257</v>
       </c>
@@ -43908,7 +44170,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="37" t="n">
         <v>45258</v>
       </c>
@@ -43961,7 +44223,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="37" t="n">
         <v>45259</v>
       </c>
@@ -44014,7 +44276,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="37" t="n">
         <v>45260</v>
       </c>
@@ -44067,7 +44329,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="37" t="n">
         <v>45261</v>
       </c>
@@ -44120,7 +44382,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="37" t="n">
         <v>45262</v>
       </c>
@@ -44173,7 +44435,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="37" t="n">
         <v>45263</v>
       </c>
@@ -44226,7 +44488,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="37" t="n">
         <v>45264</v>
       </c>
@@ -44279,7 +44541,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="37" t="n">
         <v>45265</v>
       </c>
@@ -44332,7 +44594,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="37" t="n">
         <v>45266</v>
       </c>
@@ -44385,7 +44647,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="37" t="n">
         <v>45267</v>
       </c>
@@ -44438,7 +44700,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="37" t="n">
         <v>45268</v>
       </c>
@@ -44491,7 +44753,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="37" t="n">
         <v>45269</v>
       </c>
@@ -44544,7 +44806,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="37" t="n">
         <v>45270</v>
       </c>
@@ -44597,7 +44859,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="37" t="n">
         <v>45271</v>
       </c>
@@ -44650,7 +44912,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="37" t="n">
         <v>45272</v>
       </c>
@@ -44703,7 +44965,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="37" t="n">
         <v>45273</v>
       </c>
@@ -44756,7 +45018,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="37" t="n">
         <v>45274</v>
       </c>
@@ -44809,7 +45071,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="37" t="n">
         <v>45275</v>
       </c>
@@ -44862,7 +45124,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="37" t="n">
         <v>45276</v>
       </c>
@@ -44915,7 +45177,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="37" t="n">
         <v>45277</v>
       </c>
@@ -44968,7 +45230,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="37" t="n">
         <v>45278</v>
       </c>
@@ -45021,7 +45283,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="37" t="n">
         <v>45279</v>
       </c>
@@ -45074,7 +45336,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="37" t="n">
         <v>45280</v>
       </c>
@@ -45127,7 +45389,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="37" t="n">
         <v>45281</v>
       </c>
@@ -45180,7 +45442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="37" t="n">
         <v>45282</v>
       </c>
@@ -45233,7 +45495,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="37" t="n">
         <v>45283</v>
       </c>
@@ -45286,7 +45548,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="37" t="n">
         <v>45284</v>
       </c>
@@ -45339,7 +45601,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="37" t="n">
         <v>45285</v>
       </c>
@@ -45392,7 +45654,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="37" t="n">
         <v>45286</v>
       </c>
@@ -45445,7 +45707,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="37" t="n">
         <v>45287</v>
       </c>
@@ -45498,7 +45760,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="37" t="n">
         <v>45288</v>
       </c>
@@ -45551,7 +45813,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="37" t="n">
         <v>45289</v>
       </c>
@@ -45604,12 +45866,23 @@
         <v>94</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="37"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R11 R18:R19 R22 R26 R29:R31 R33:R34 R39:R41 R52 R71 R75 R84:R365" type="list">
+      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x12ac">
+          <x12ac:list>Maintenance,Operation,Standby,"Standby, Operation","Standby, Maintenance","Operation, Maintenance","Standby, Operation, Maintenance",Actual Plant Outage</x12ac:list>
+        </mc:Choice>
+        <mc:Fallback>
+          <formula1>"Maintenance,Operation,Standby,Standby, Operation,Standby, Maintenance,Operation, Maintenance,Standby, Operation, Maintenance,Actual Plant Outage"</formula1>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
